--- a/results/all_results_test_avg.xlsx
+++ b/results/all_results_test_avg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\t1057\Desktop\Local Working Directory\07_Projekte\Lp Corruptions\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\t1057\Desktop\Local Working Directory\07_Projekte\Lp Corruptions\Github Code and Results\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>uniform-linf,0.02,False</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>clean E</t>
-  </si>
-  <si>
-    <t>mCE_Lp(excl.impulse)</t>
   </si>
   <si>
     <t>Standard</t>
@@ -1454,12 +1451,6 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-DDAC-42AA-9779-B556D3E26D35}"/>
@@ -2153,7 +2144,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(cifar10_metrics_test_avg!$B$69,cifar10_metrics_test_avg!$I$69,cifar10_metrics_test_avg!$K$69,cifar10_metrics_test_avg!$M$69,cifar10_metrics_test_avg!$P$69,cifar10_metrics_test_avg!$R$69,cifar10_metrics_test_avg!$S$69,cifar10_metrics_test_avg!$T$69,cifar10_metrics_test_avg!$U$69,cifar10_metrics_test_avg!$V$69,cifar10_metrics_test_avg!$W$69,cifar10_metrics_test_avg!$X$69,cifar10_metrics_test_avg!$AA$69)</c:f>
+              <c:f>(cifar10_metrics_test_avg!$B$68,cifar10_metrics_test_avg!$I$68,cifar10_metrics_test_avg!$K$68,cifar10_metrics_test_avg!$M$68,cifar10_metrics_test_avg!$P$68,cifar10_metrics_test_avg!$R$68,cifar10_metrics_test_avg!$S$68,cifar10_metrics_test_avg!$T$68,cifar10_metrics_test_avg!$U$68,cifar10_metrics_test_avg!$V$68,cifar10_metrics_test_avg!$W$68,cifar10_metrics_test_avg!$X$68,cifar10_metrics_test_avg!$AA$68)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2509,13 +2500,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1295401</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>14009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2803,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="W34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X67" sqref="X67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,85 +2824,85 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -7979,85 +7970,85 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="D63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="F63" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="G63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="H63" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="I63" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="J63" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="K63" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="L63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N63" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K63" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L63" s="10" t="s">
+      <c r="O63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M63" s="10" t="s">
+      <c r="Q63" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R63" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N63" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P63" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q63" s="10" t="s">
+      <c r="S63" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s">
+        <v>74</v>
+      </c>
+      <c r="U63" t="s">
+        <v>75</v>
+      </c>
+      <c r="V63" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W63" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X63" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y63" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z63" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA63" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="R63" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="S63" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="T63" t="s">
-        <v>75</v>
-      </c>
-      <c r="U63" t="s">
-        <v>76</v>
-      </c>
-      <c r="V63" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W63" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X63" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y63" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z63" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA63" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
@@ -8392,325 +8383,216 @@
         <v>63</v>
       </c>
       <c r="B67" s="3">
-        <f>(3500-SUM(B28:B62))/35</f>
-        <v>29.184342857142852</v>
+        <f>((3300-(SUM(B28:B31)+SUM(B34:B62)))/33)</f>
+        <v>30.580000000000009</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ref="C67:Q67" si="12">(3500-SUM(C28:C62))/35</f>
-        <v>19.887142857142862</v>
+        <f>((3300-(SUM(C28:C31)+SUM(C34:C62)))/33)</f>
+        <v>20.665757575757571</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" si="12"/>
-        <v>16.30565714285714</v>
+        <f t="shared" ref="D67:AA67" si="12">((3300-(SUM(D28:D31)+SUM(D34:D62)))/33)</f>
+        <v>16.814727272727257</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="12"/>
-        <v>19.355657142857126</v>
+        <v>20.107151515151518</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="12"/>
-        <v>12.611485714285715</v>
+        <v>12.848363636363626</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="12"/>
-        <v>20.609200000000005</v>
+        <v>21.440303030303035</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="12"/>
-        <v>12.875257142857143</v>
+        <v>13.149090909090912</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" si="12"/>
-        <v>20.916228571428576</v>
+        <v>21.766727272727262</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" si="12"/>
-        <v>12.760857142857146</v>
+        <v>13.013636363636373</v>
       </c>
       <c r="K67" s="3">
         <f t="shared" si="12"/>
-        <v>20.342685714285693</v>
+        <v>21.169515151515153</v>
       </c>
       <c r="L67" s="3">
         <f t="shared" si="12"/>
-        <v>11.89520000000001</v>
+        <v>12.137030303030301</v>
       </c>
       <c r="M67" s="3">
         <f t="shared" si="12"/>
-        <v>15.965657142857136</v>
+        <v>16.554969696969678</v>
       </c>
       <c r="N67" s="3">
         <f t="shared" si="12"/>
-        <v>15.736285714285701</v>
+        <v>16.297757575757547</v>
       </c>
       <c r="O67" s="3">
         <f t="shared" si="12"/>
-        <v>12.872171428571411</v>
+        <v>13.267636363636374</v>
       </c>
       <c r="P67" s="3">
         <f t="shared" si="12"/>
-        <v>11.363142857142858</v>
+        <v>11.665151515151523</v>
       </c>
       <c r="Q67" s="3">
         <f t="shared" si="12"/>
-        <v>9.761942857142861</v>
+        <v>9.9514545454545491</v>
       </c>
       <c r="R67" s="3">
-        <f t="shared" ref="R67:T67" si="13">(3500-SUM(R28:R62))/35</f>
-        <v>10.021199999999979</v>
+        <f t="shared" si="12"/>
+        <v>10.23054545454546</v>
       </c>
       <c r="S67" s="3">
-        <f t="shared" si="13"/>
-        <v>9.4737714285714247</v>
+        <f t="shared" si="12"/>
+        <v>9.6310909090908954</v>
       </c>
       <c r="T67" s="3">
-        <f t="shared" si="13"/>
-        <v>17.690914285714292</v>
+        <f t="shared" si="12"/>
+        <v>18.469575757575747</v>
       </c>
       <c r="U67" s="3">
-        <f t="shared" ref="U67:AA67" si="14">(3500-SUM(U28:U62))/35</f>
-        <v>13.844857142857148</v>
+        <f t="shared" si="12"/>
+        <v>14.35321212121212</v>
       </c>
       <c r="V67" s="3">
-        <f t="shared" ref="V67" si="15">(3500-SUM(V28:V62))/35</f>
-        <v>9.9118285714285381</v>
+        <f t="shared" si="12"/>
+        <v>10.180060606060607</v>
       </c>
       <c r="W67" s="3">
-        <f t="shared" si="14"/>
-        <v>17.63051428571428</v>
+        <f t="shared" si="12"/>
+        <v>18.429575757575741</v>
       </c>
       <c r="X67" s="3">
-        <f t="shared" si="14"/>
-        <v>12.059600000000007</v>
+        <f t="shared" si="12"/>
+        <v>12.522000000000018</v>
       </c>
       <c r="Y67" s="3">
-        <f t="shared" si="14"/>
-        <v>8.3597714285714311</v>
+        <f t="shared" si="12"/>
+        <v>8.5773333333333373</v>
       </c>
       <c r="Z67" s="3">
-        <f t="shared" si="14"/>
-        <v>7.8360571428571477</v>
+        <f t="shared" si="12"/>
+        <v>8.0015757575757753</v>
       </c>
       <c r="AA67" s="3">
-        <f t="shared" si="14"/>
-        <v>7.0855999999999897</v>
+        <f t="shared" si="12"/>
+        <v>7.2205454545454479</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="3">
-        <f>(2700-SUM(B28:B54))/27</f>
-        <v>28.172888888888902</v>
-      </c>
-      <c r="C68" s="3">
-        <f t="shared" ref="C68:AA68" si="16">(2700-SUM(C28:C54))/27</f>
-        <v>17.977851851851852</v>
-      </c>
-      <c r="D68" s="3">
-        <f t="shared" si="16"/>
-        <v>14.29007407407407</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" si="16"/>
-        <v>17.642740740740734</v>
-      </c>
-      <c r="F68" s="3">
-        <f t="shared" si="16"/>
-        <v>11.227407407407419</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" si="16"/>
-        <v>19.109925925925921</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" si="16"/>
-        <v>11.440222222222221</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="16"/>
-        <v>19.349999999999994</v>
-      </c>
-      <c r="J68" s="3">
-        <f t="shared" si="16"/>
-        <v>11.311555555555548</v>
-      </c>
-      <c r="K68" s="3">
-        <f t="shared" si="16"/>
-        <v>18.764814814814802</v>
-      </c>
-      <c r="L68" s="3">
-        <f t="shared" si="16"/>
-        <v>10.385555555555568</v>
-      </c>
-      <c r="M68" s="3">
-        <f t="shared" si="16"/>
-        <v>18.626148148148147</v>
-      </c>
-      <c r="N68" s="3">
-        <f t="shared" si="16"/>
-        <v>18.541555555555551</v>
-      </c>
-      <c r="O68" s="3">
-        <f t="shared" si="16"/>
-        <v>14.77037037037036</v>
-      </c>
-      <c r="P68" s="3">
-        <f t="shared" si="16"/>
-        <v>12.862740740740735</v>
-      </c>
-      <c r="Q68" s="3">
-        <f t="shared" si="16"/>
-        <v>10.945999999999996</v>
-      </c>
-      <c r="R68" s="3">
-        <f t="shared" si="16"/>
-        <v>10.87392592592591</v>
-      </c>
-      <c r="S68" s="3">
-        <f t="shared" si="16"/>
-        <v>10.19207407407408</v>
-      </c>
-      <c r="T68" s="3">
-        <f t="shared" si="16"/>
-        <v>20.168962962962958</v>
-      </c>
-      <c r="U68" s="3">
-        <f t="shared" si="16"/>
-        <v>14.411481481481486</v>
-      </c>
-      <c r="V68" s="3">
-        <f t="shared" ref="V68" si="17">(2700-SUM(V28:V54))/27</f>
-        <v>11.187111111111083</v>
-      </c>
-      <c r="W68" s="3">
-        <f t="shared" si="16"/>
-        <v>19.010222222222215</v>
-      </c>
-      <c r="X68" s="3">
-        <f t="shared" si="16"/>
-        <v>14.190444444444438</v>
-      </c>
-      <c r="Y68" s="3">
-        <f t="shared" si="16"/>
-        <v>9.3261481481481496</v>
-      </c>
-      <c r="Z68" s="3">
-        <f t="shared" si="16"/>
-        <v>8.6431851851851853</v>
-      </c>
-      <c r="AA68" s="3">
-        <f t="shared" si="16"/>
-        <v>7.6525925925925886</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69">
+        <v>82</v>
+      </c>
+      <c r="B68">
         <f>B2/100</f>
         <v>0.94733999999999996</v>
       </c>
-      <c r="C69">
-        <f t="shared" ref="C69:AA69" si="18">C2/100</f>
+      <c r="C68">
+        <f t="shared" ref="C68:AA68" si="13">C2/100</f>
         <v>0.94169999999999998</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="18"/>
+      <c r="D68">
+        <f t="shared" si="13"/>
         <v>0.93572</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="18"/>
+      <c r="E68">
+        <f t="shared" si="13"/>
         <v>0.94177999999999995</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="18"/>
+      <c r="F68">
+        <f t="shared" si="13"/>
         <v>0.92846000000000006</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="18"/>
+      <c r="G68">
+        <f t="shared" si="13"/>
         <v>0.94224000000000008</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="18"/>
+      <c r="H68">
+        <f t="shared" si="13"/>
         <v>0.93087999999999993</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="18"/>
+      <c r="I68">
+        <f t="shared" si="13"/>
         <v>0.94319999999999993</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="18"/>
+      <c r="J68">
+        <f t="shared" si="13"/>
         <v>0.92949999999999999</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="18"/>
+      <c r="K68">
+        <f t="shared" si="13"/>
         <v>0.94530000000000003</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="18"/>
+      <c r="L68">
+        <f t="shared" si="13"/>
         <v>0.93457999999999997</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="18"/>
+      <c r="M68">
+        <f t="shared" si="13"/>
         <v>0.94808000000000003</v>
       </c>
-      <c r="N69">
-        <f t="shared" si="18"/>
+      <c r="N68">
+        <f t="shared" si="13"/>
         <v>0.94672000000000001</v>
       </c>
-      <c r="O69">
-        <f t="shared" si="18"/>
+      <c r="O68">
+        <f t="shared" si="13"/>
         <v>0.94774000000000003</v>
       </c>
-      <c r="P69">
-        <f t="shared" si="18"/>
+      <c r="P68">
+        <f t="shared" si="13"/>
         <v>0.9472799999999999</v>
       </c>
-      <c r="Q69">
-        <f t="shared" si="18"/>
+      <c r="Q68">
+        <f t="shared" si="13"/>
         <v>0.94596000000000002</v>
       </c>
-      <c r="R69">
-        <f t="shared" si="18"/>
+      <c r="R68">
+        <f t="shared" si="13"/>
         <v>0.94572000000000001</v>
       </c>
-      <c r="S69">
-        <f t="shared" si="18"/>
+      <c r="S68">
+        <f t="shared" si="13"/>
         <v>0.94412000000000007</v>
       </c>
-      <c r="T69">
-        <f t="shared" si="18"/>
+      <c r="T68">
+        <f t="shared" si="13"/>
         <v>0.9577</v>
       </c>
-      <c r="U69">
-        <f t="shared" si="18"/>
+      <c r="U68">
+        <f t="shared" si="13"/>
         <v>0.95474000000000003</v>
       </c>
-      <c r="V69">
-        <f t="shared" si="18"/>
+      <c r="V68">
+        <f t="shared" si="13"/>
         <v>0.95463999999999993</v>
       </c>
-      <c r="W69">
-        <f t="shared" si="18"/>
+      <c r="W68">
+        <f t="shared" si="13"/>
         <v>0.95986000000000005</v>
       </c>
-      <c r="X69">
-        <f t="shared" si="18"/>
+      <c r="X68">
+        <f t="shared" si="13"/>
         <v>0.96087999999999996</v>
       </c>
-      <c r="Y69">
-        <f t="shared" si="18"/>
+      <c r="Y68">
+        <f t="shared" si="13"/>
         <v>0.95727999999999991</v>
       </c>
-      <c r="Z69">
-        <f t="shared" si="18"/>
+      <c r="Z68">
+        <f t="shared" si="13"/>
         <v>0.95489999999999997</v>
       </c>
-      <c r="AA69">
-        <f t="shared" si="18"/>
+      <c r="AA68">
+        <f t="shared" si="13"/>
         <v>0.95657999999999999</v>
       </c>
     </row>

--- a/results/all_results_test_avg.xlsx
+++ b/results/all_results_test_avg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\t1057\Desktop\Local Working Directory\07_Projekte\Lp Corruptions\Github Code and Results\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\t1057\Desktop\Local Working Directory\07_Projekte\Lp Corruptions\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>uniform-linf,0.02,False</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>clean E</t>
+  </si>
+  <si>
+    <t>mCE_Lp(excl.impulse)</t>
   </si>
   <si>
     <t>Standard</t>
@@ -1451,6 +1454,12 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-DDAC-42AA-9779-B556D3E26D35}"/>
@@ -2144,7 +2153,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(cifar10_metrics_test_avg!$B$68,cifar10_metrics_test_avg!$I$68,cifar10_metrics_test_avg!$K$68,cifar10_metrics_test_avg!$M$68,cifar10_metrics_test_avg!$P$68,cifar10_metrics_test_avg!$R$68,cifar10_metrics_test_avg!$S$68,cifar10_metrics_test_avg!$T$68,cifar10_metrics_test_avg!$U$68,cifar10_metrics_test_avg!$V$68,cifar10_metrics_test_avg!$W$68,cifar10_metrics_test_avg!$X$68,cifar10_metrics_test_avg!$AA$68)</c:f>
+              <c:f>(cifar10_metrics_test_avg!$B$69,cifar10_metrics_test_avg!$I$69,cifar10_metrics_test_avg!$K$69,cifar10_metrics_test_avg!$M$69,cifar10_metrics_test_avg!$P$69,cifar10_metrics_test_avg!$R$69,cifar10_metrics_test_avg!$S$69,cifar10_metrics_test_avg!$T$69,cifar10_metrics_test_avg!$U$69,cifar10_metrics_test_avg!$V$69,cifar10_metrics_test_avg!$W$69,cifar10_metrics_test_avg!$X$69,cifar10_metrics_test_avg!$AA$69)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2500,13 +2509,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1295401</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>14009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2794,10 +2803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X67" sqref="X67"/>
+    <sheetView tabSelected="1" topLeftCell="L58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,85 +2833,85 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="AA1" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -7970,85 +7979,85 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T63" t="s">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s">
+        <v>76</v>
+      </c>
+      <c r="V63" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W63" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X63" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y63" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z63" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M63" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P63" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q63" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="R63" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="S63" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="T63" t="s">
-        <v>74</v>
-      </c>
-      <c r="U63" t="s">
-        <v>75</v>
-      </c>
-      <c r="V63" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W63" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="X63" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y63" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z63" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="AA63" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
@@ -8383,216 +8392,325 @@
         <v>63</v>
       </c>
       <c r="B67" s="3">
-        <f>((3300-(SUM(B28:B31)+SUM(B34:B62)))/33)</f>
-        <v>30.580000000000009</v>
+        <f>(3500-SUM(B28:B62))/35</f>
+        <v>29.184342857142852</v>
       </c>
       <c r="C67" s="3">
-        <f>((3300-(SUM(C28:C31)+SUM(C34:C62)))/33)</f>
-        <v>20.665757575757571</v>
+        <f t="shared" ref="C67:Q67" si="12">(3500-SUM(C28:C62))/35</f>
+        <v>19.887142857142862</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:AA67" si="12">((3300-(SUM(D28:D31)+SUM(D34:D62)))/33)</f>
-        <v>16.814727272727257</v>
+        <f t="shared" si="12"/>
+        <v>16.30565714285714</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="12"/>
-        <v>20.107151515151518</v>
+        <v>19.355657142857126</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="12"/>
-        <v>12.848363636363626</v>
+        <v>12.611485714285715</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="12"/>
-        <v>21.440303030303035</v>
+        <v>20.609200000000005</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="12"/>
-        <v>13.149090909090912</v>
+        <v>12.875257142857143</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" si="12"/>
-        <v>21.766727272727262</v>
+        <v>20.916228571428576</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" si="12"/>
-        <v>13.013636363636373</v>
+        <v>12.760857142857146</v>
       </c>
       <c r="K67" s="3">
         <f t="shared" si="12"/>
-        <v>21.169515151515153</v>
+        <v>20.342685714285693</v>
       </c>
       <c r="L67" s="3">
         <f t="shared" si="12"/>
-        <v>12.137030303030301</v>
+        <v>11.89520000000001</v>
       </c>
       <c r="M67" s="3">
         <f t="shared" si="12"/>
-        <v>16.554969696969678</v>
+        <v>15.965657142857136</v>
       </c>
       <c r="N67" s="3">
         <f t="shared" si="12"/>
-        <v>16.297757575757547</v>
+        <v>15.736285714285701</v>
       </c>
       <c r="O67" s="3">
         <f t="shared" si="12"/>
-        <v>13.267636363636374</v>
+        <v>12.872171428571411</v>
       </c>
       <c r="P67" s="3">
         <f t="shared" si="12"/>
-        <v>11.665151515151523</v>
+        <v>11.363142857142858</v>
       </c>
       <c r="Q67" s="3">
         <f t="shared" si="12"/>
-        <v>9.9514545454545491</v>
+        <v>9.761942857142861</v>
       </c>
       <c r="R67" s="3">
-        <f t="shared" si="12"/>
-        <v>10.23054545454546</v>
+        <f t="shared" ref="R67:T67" si="13">(3500-SUM(R28:R62))/35</f>
+        <v>10.021199999999979</v>
       </c>
       <c r="S67" s="3">
-        <f t="shared" si="12"/>
-        <v>9.6310909090908954</v>
+        <f t="shared" si="13"/>
+        <v>9.4737714285714247</v>
       </c>
       <c r="T67" s="3">
-        <f t="shared" si="12"/>
-        <v>18.469575757575747</v>
+        <f t="shared" si="13"/>
+        <v>17.690914285714292</v>
       </c>
       <c r="U67" s="3">
-        <f t="shared" si="12"/>
-        <v>14.35321212121212</v>
+        <f t="shared" ref="U67:AA67" si="14">(3500-SUM(U28:U62))/35</f>
+        <v>13.844857142857148</v>
       </c>
       <c r="V67" s="3">
-        <f t="shared" si="12"/>
-        <v>10.180060606060607</v>
+        <f t="shared" ref="V67" si="15">(3500-SUM(V28:V62))/35</f>
+        <v>9.9118285714285381</v>
       </c>
       <c r="W67" s="3">
-        <f t="shared" si="12"/>
-        <v>18.429575757575741</v>
+        <f t="shared" si="14"/>
+        <v>17.63051428571428</v>
       </c>
       <c r="X67" s="3">
-        <f t="shared" si="12"/>
-        <v>12.522000000000018</v>
+        <f t="shared" si="14"/>
+        <v>12.059600000000007</v>
       </c>
       <c r="Y67" s="3">
-        <f t="shared" si="12"/>
-        <v>8.5773333333333373</v>
+        <f t="shared" si="14"/>
+        <v>8.3597714285714311</v>
       </c>
       <c r="Z67" s="3">
-        <f t="shared" si="12"/>
-        <v>8.0015757575757753</v>
+        <f t="shared" si="14"/>
+        <v>7.8360571428571477</v>
       </c>
       <c r="AA67" s="3">
-        <f t="shared" si="12"/>
-        <v>7.2205454545454479</v>
+        <f t="shared" si="14"/>
+        <v>7.0855999999999897</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <f>(2700-SUM(B28:B54))/27</f>
+        <v>28.172888888888902</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" ref="C68:AA68" si="16">(2700-SUM(C28:C54))/27</f>
+        <v>17.977851851851852</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="16"/>
+        <v>14.29007407407407</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="16"/>
+        <v>17.642740740740734</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="16"/>
+        <v>11.227407407407419</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="16"/>
+        <v>19.109925925925921</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="16"/>
+        <v>11.440222222222221</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="16"/>
+        <v>19.349999999999994</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="16"/>
+        <v>11.311555555555548</v>
+      </c>
+      <c r="K68" s="3">
+        <f t="shared" si="16"/>
+        <v>18.764814814814802</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="16"/>
+        <v>10.385555555555568</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="16"/>
+        <v>18.626148148148147</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" si="16"/>
+        <v>18.541555555555551</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="16"/>
+        <v>14.77037037037036</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" si="16"/>
+        <v>12.862740740740735</v>
+      </c>
+      <c r="Q68" s="3">
+        <f t="shared" si="16"/>
+        <v>10.945999999999996</v>
+      </c>
+      <c r="R68" s="3">
+        <f t="shared" si="16"/>
+        <v>10.87392592592591</v>
+      </c>
+      <c r="S68" s="3">
+        <f t="shared" si="16"/>
+        <v>10.19207407407408</v>
+      </c>
+      <c r="T68" s="3">
+        <f t="shared" si="16"/>
+        <v>20.168962962962958</v>
+      </c>
+      <c r="U68" s="3">
+        <f t="shared" si="16"/>
+        <v>14.411481481481486</v>
+      </c>
+      <c r="V68" s="3">
+        <f t="shared" ref="V68" si="17">(2700-SUM(V28:V54))/27</f>
+        <v>11.187111111111083</v>
+      </c>
+      <c r="W68" s="3">
+        <f t="shared" si="16"/>
+        <v>19.010222222222215</v>
+      </c>
+      <c r="X68" s="3">
+        <f t="shared" si="16"/>
+        <v>14.190444444444438</v>
+      </c>
+      <c r="Y68" s="3">
+        <f t="shared" si="16"/>
+        <v>9.3261481481481496</v>
+      </c>
+      <c r="Z68" s="3">
+        <f t="shared" si="16"/>
+        <v>8.6431851851851853</v>
+      </c>
+      <c r="AA68" s="3">
+        <f t="shared" si="16"/>
+        <v>7.6525925925925886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69">
         <f>B2/100</f>
         <v>0.94733999999999996</v>
       </c>
-      <c r="C68">
-        <f t="shared" ref="C68:AA68" si="13">C2/100</f>
+      <c r="C69">
+        <f t="shared" ref="C69:AA69" si="18">C2/100</f>
         <v>0.94169999999999998</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="13"/>
+      <c r="D69">
+        <f t="shared" si="18"/>
         <v>0.93572</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="13"/>
+      <c r="E69">
+        <f t="shared" si="18"/>
         <v>0.94177999999999995</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="13"/>
+      <c r="F69">
+        <f t="shared" si="18"/>
         <v>0.92846000000000006</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="13"/>
+      <c r="G69">
+        <f t="shared" si="18"/>
         <v>0.94224000000000008</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="13"/>
+      <c r="H69">
+        <f t="shared" si="18"/>
         <v>0.93087999999999993</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="13"/>
+      <c r="I69">
+        <f t="shared" si="18"/>
         <v>0.94319999999999993</v>
       </c>
-      <c r="J68">
-        <f t="shared" si="13"/>
+      <c r="J69">
+        <f t="shared" si="18"/>
         <v>0.92949999999999999</v>
       </c>
-      <c r="K68">
-        <f t="shared" si="13"/>
+      <c r="K69">
+        <f t="shared" si="18"/>
         <v>0.94530000000000003</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="13"/>
+      <c r="L69">
+        <f t="shared" si="18"/>
         <v>0.93457999999999997</v>
       </c>
-      <c r="M68">
-        <f t="shared" si="13"/>
+      <c r="M69">
+        <f t="shared" si="18"/>
         <v>0.94808000000000003</v>
       </c>
-      <c r="N68">
-        <f t="shared" si="13"/>
+      <c r="N69">
+        <f t="shared" si="18"/>
         <v>0.94672000000000001</v>
       </c>
-      <c r="O68">
-        <f t="shared" si="13"/>
+      <c r="O69">
+        <f t="shared" si="18"/>
         <v>0.94774000000000003</v>
       </c>
-      <c r="P68">
-        <f t="shared" si="13"/>
+      <c r="P69">
+        <f t="shared" si="18"/>
         <v>0.9472799999999999</v>
       </c>
-      <c r="Q68">
-        <f t="shared" si="13"/>
+      <c r="Q69">
+        <f t="shared" si="18"/>
         <v>0.94596000000000002</v>
       </c>
-      <c r="R68">
-        <f t="shared" si="13"/>
+      <c r="R69">
+        <f t="shared" si="18"/>
         <v>0.94572000000000001</v>
       </c>
-      <c r="S68">
-        <f t="shared" si="13"/>
+      <c r="S69">
+        <f t="shared" si="18"/>
         <v>0.94412000000000007</v>
       </c>
-      <c r="T68">
-        <f t="shared" si="13"/>
+      <c r="T69">
+        <f t="shared" si="18"/>
         <v>0.9577</v>
       </c>
-      <c r="U68">
-        <f t="shared" si="13"/>
+      <c r="U69">
+        <f t="shared" si="18"/>
         <v>0.95474000000000003</v>
       </c>
-      <c r="V68">
-        <f t="shared" si="13"/>
+      <c r="V69">
+        <f t="shared" si="18"/>
         <v>0.95463999999999993</v>
       </c>
-      <c r="W68">
-        <f t="shared" si="13"/>
+      <c r="W69">
+        <f t="shared" si="18"/>
         <v>0.95986000000000005</v>
       </c>
-      <c r="X68">
-        <f t="shared" si="13"/>
+      <c r="X69">
+        <f t="shared" si="18"/>
         <v>0.96087999999999996</v>
       </c>
-      <c r="Y68">
-        <f t="shared" si="13"/>
+      <c r="Y69">
+        <f t="shared" si="18"/>
         <v>0.95727999999999991</v>
       </c>
-      <c r="Z68">
-        <f t="shared" si="13"/>
+      <c r="Z69">
+        <f t="shared" si="18"/>
         <v>0.95489999999999997</v>
       </c>
-      <c r="AA68">
-        <f t="shared" si="13"/>
+      <c r="AA69">
+        <f t="shared" si="18"/>
         <v>0.95657999999999999</v>
       </c>
     </row>

--- a/results/all_results_test_avg.xlsx
+++ b/results/all_results_test_avg.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
   <si>
     <t>uniform-linf,0.02,False</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>clean E</t>
-  </si>
-  <si>
-    <t>mCE_Lp(excl.impulse)</t>
   </si>
   <si>
     <t>Standard</t>
@@ -717,6 +714,9 @@
   </si>
   <si>
     <t>TA+C2C1</t>
+  </si>
+  <si>
+    <t>C2C1</t>
   </si>
 </sst>
 </file>
@@ -1240,17 +1240,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1454,12 +1451,6 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-DDAC-42AA-9779-B556D3E26D35}"/>
@@ -1716,8 +1707,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0756091095339902E-2"/>
-                  <c:y val="1.929077540183094E-2"/>
+                  <c:x val="-7.1824934202863552E-2"/>
+                  <c:y val="4.8226938504577571E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1767,8 +1758,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.6048728762719212E-2"/>
-                  <c:y val="5.787232620549309E-2"/>
+                  <c:x val="-0.11997572211221898"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1849,7 +1840,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{4420D8F1-7ABC-4953-9B42-BB825F0B309D}</c15:txfldGUID>
-                      <c15:f>cifar10_metrics_test_avg!$T$63</c15:f>
+                      <c15:f>cifar10_metrics_test_avg!$U$63</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -1900,7 +1891,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{B99620A2-C415-4A9F-9EB0-A687367F0639}</c15:txfldGUID>
-                      <c15:f>cifar10_metrics_test_avg!$U$63</c15:f>
+                      <c15:f>cifar10_metrics_test_avg!$V$63</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -1956,7 +1947,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{C64F9770-2EC2-4B9D-9CAB-BE0D698EB5D2}</c15:txfldGUID>
-                      <c15:f>cifar10_metrics_test_avg!$V$63</c15:f>
+                      <c15:f>cifar10_metrics_test_avg!$W$63</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -2007,7 +1998,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{E97F0785-6CB8-4AF7-A2BB-ECC46E403065}</c15:txfldGUID>
-                      <c15:f>cifar10_metrics_test_avg!$W$63</c15:f>
+                      <c15:f>cifar10_metrics_test_avg!$X$63</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -2063,7 +2054,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{BDA5FE63-7B8E-477F-957F-9884D9B38B15}</c15:txfldGUID>
-                      <c15:f>cifar10_metrics_test_avg!$X$63</c15:f>
+                      <c15:f>cifar10_metrics_test_avg!$Y$63</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -2114,7 +2105,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{66D960F6-1CA3-4247-A32C-2B04BBC6148A}</c15:txfldGUID>
-                      <c15:f>cifar10_metrics_test_avg!$AA$63</c15:f>
+                      <c15:f>cifar10_metrics_test_avg!$AB$63</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -2127,6 +2118,57 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-DDAC-42AA-9779-B556D3E26D35}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7854131782341042E-3"/>
+                  <c:y val="4.822693850457669E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{150D8803-CBFC-4D89-A33F-8AB4D341D3A9}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEZ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{150D8803-CBFC-4D89-A33F-8AB4D341D3A9}</c15:txfldGUID>
+                      <c15:f>cifar10_metrics_test_avg!$T$63</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>C2C1</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D23D-42CE-AE28-6C6D558C6D9F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2147,16 +2189,17 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(cifar10_metrics_test_avg!$B$69,cifar10_metrics_test_avg!$I$69,cifar10_metrics_test_avg!$K$69,cifar10_metrics_test_avg!$M$69,cifar10_metrics_test_avg!$P$69,cifar10_metrics_test_avg!$R$69,cifar10_metrics_test_avg!$S$69,cifar10_metrics_test_avg!$T$69,cifar10_metrics_test_avg!$U$69,cifar10_metrics_test_avg!$V$69,cifar10_metrics_test_avg!$W$69,cifar10_metrics_test_avg!$X$69,cifar10_metrics_test_avg!$AA$69)</c:f>
+              <c:f>(cifar10_metrics_test_avg!$B$68,cifar10_metrics_test_avg!$I$68,cifar10_metrics_test_avg!$K$68,cifar10_metrics_test_avg!$M$68,cifar10_metrics_test_avg!$P$68,cifar10_metrics_test_avg!$R$68,cifar10_metrics_test_avg!$S$68,cifar10_metrics_test_avg!$U$68,cifar10_metrics_test_avg!$V$68,cifar10_metrics_test_avg!$W$68,cifar10_metrics_test_avg!$X$68,cifar10_metrics_test_avg!$Y$68,cifar10_metrics_test_avg!$AB$68,cifar10_metrics_test_avg!$T$68)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.94733999999999996</c:v>
                 </c:pt>
@@ -2196,15 +2239,18 @@
                 <c:pt idx="12">
                   <c:v>0.95657999999999999</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9472799999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(cifar10_metrics_test_avg!$B$65,cifar10_metrics_test_avg!$I$65,cifar10_metrics_test_avg!$K$65,cifar10_metrics_test_avg!$M$65,cifar10_metrics_test_avg!$P$65,cifar10_metrics_test_avg!$R$65,cifar10_metrics_test_avg!$S$65,cifar10_metrics_test_avg!$T$65,cifar10_metrics_test_avg!$U$65,cifar10_metrics_test_avg!$V$65,cifar10_metrics_test_avg!$W$65,cifar10_metrics_test_avg!$X$65,cifar10_metrics_test_avg!$AA$65)</c:f>
+              <c:f>(cifar10_metrics_test_avg!$B$65,cifar10_metrics_test_avg!$I$65,cifar10_metrics_test_avg!$K$65,cifar10_metrics_test_avg!$M$65,cifar10_metrics_test_avg!$P$65,cifar10_metrics_test_avg!$R$65,cifar10_metrics_test_avg!$S$65,cifar10_metrics_test_avg!$U$65,cifar10_metrics_test_avg!$V$65,cifar10_metrics_test_avg!$W$65,cifar10_metrics_test_avg!$X$65,cifar10_metrics_test_avg!$Y$65,cifar10_metrics_test_avg!$AB$65,cifar10_metrics_test_avg!$T$65)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>27.597684210526303</c:v>
                 </c:pt>
@@ -2243,6 +2289,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10.39373684210525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.563157894736857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,13 +2558,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1295401</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>14009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2803,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="K52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,99 +2871,102 @@
     <col min="13" max="14" width="32" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="34" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>82</v>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="O1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2973,31 +3025,34 @@
         <v>94.412000000000006</v>
       </c>
       <c r="T2">
+        <v>94.727999999999994</v>
+      </c>
+      <c r="U2">
         <v>95.77</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>95.474000000000004</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>95.463999999999999</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>95.986000000000004</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>96.087999999999994</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>95.727999999999994</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>95.49</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>95.658000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3056,31 +3111,34 @@
         <v>80.515000000000001</v>
       </c>
       <c r="T3" s="4">
+        <v>82.831999999999994</v>
+      </c>
+      <c r="U3" s="4">
         <v>59.457000000000001</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="4">
         <v>73.462000000000003</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="4">
         <v>79.168999999999997</v>
       </c>
-      <c r="W3">
+      <c r="X3" s="4">
         <v>62.767000000000003</v>
       </c>
-      <c r="X3">
+      <c r="Y3" s="4">
         <v>70.747</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Z3" s="4">
         <v>81.471999999999994</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AA3" s="4">
         <v>82.784000000000006</v>
       </c>
-      <c r="AA3">
+      <c r="AB3" s="4">
         <v>86.516999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3139,31 +3197,34 @@
         <v>84.885999999999996</v>
       </c>
       <c r="T4" s="4">
+        <v>86.394000000000005</v>
+      </c>
+      <c r="U4" s="4">
         <v>70.316999999999993</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="4">
         <v>81.197000000000003</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="4">
         <v>84.718000000000004</v>
       </c>
-      <c r="W4">
+      <c r="X4" s="4">
         <v>71.988</v>
       </c>
-      <c r="X4">
+      <c r="Y4" s="4">
         <v>77.932000000000002</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Z4" s="4">
         <v>86.042000000000002</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AA4" s="4">
         <v>86.875</v>
       </c>
-      <c r="AA4">
+      <c r="AB4" s="4">
         <v>89.450999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -3222,31 +3283,34 @@
         <v>85.287999999999997</v>
       </c>
       <c r="T5" s="4">
+        <v>86.834000000000003</v>
+      </c>
+      <c r="U5" s="4">
         <v>73.930000000000007</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="4">
         <v>83.644999999999996</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="4">
         <v>86.63</v>
       </c>
-      <c r="W5">
+      <c r="X5" s="4">
         <v>74.283000000000001</v>
       </c>
-      <c r="X5">
+      <c r="Y5" s="4">
         <v>79.646000000000001</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <v>86.587999999999994</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AA5" s="4">
         <v>87.397999999999996</v>
       </c>
-      <c r="AA5">
+      <c r="AB5" s="4">
         <v>89.548000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -3305,31 +3369,34 @@
         <v>93.813999999999993</v>
       </c>
       <c r="T6" s="4">
+        <v>93.527000000000001</v>
+      </c>
+      <c r="U6" s="4">
         <v>82.055000000000007</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="4">
         <v>77.953000000000003</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="4">
         <v>94.498999999999995</v>
       </c>
-      <c r="W6">
+      <c r="X6" s="4">
         <v>72.415999999999997</v>
       </c>
-      <c r="X6">
+      <c r="Y6" s="4">
         <v>95.218000000000004</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Z6" s="4">
         <v>94.975999999999999</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AA6" s="4">
         <v>95.042000000000002</v>
       </c>
-      <c r="AA6">
+      <c r="AB6" s="4">
         <v>94.805999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -3388,31 +3455,34 @@
         <v>78.617999999999995</v>
       </c>
       <c r="T7" s="4">
+        <v>79.405000000000001</v>
+      </c>
+      <c r="U7" s="4">
         <v>85.484999999999999</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="4">
         <v>92.628</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="4">
         <v>92.85</v>
       </c>
-      <c r="W7">
+      <c r="X7" s="4">
         <v>92.656000000000006</v>
       </c>
-      <c r="X7">
+      <c r="Y7" s="4">
         <v>92.84</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Z7" s="4">
         <v>91.927999999999997</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AA7" s="4">
         <v>91.442999999999998</v>
       </c>
-      <c r="AA7">
+      <c r="AB7" s="4">
         <v>92.09</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3471,31 +3541,34 @@
         <v>71.024000000000001</v>
       </c>
       <c r="T8" s="4">
+        <v>71.745999999999995</v>
+      </c>
+      <c r="U8" s="4">
         <v>78.325000000000003</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="4">
         <v>90.739000000000004</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="4">
         <v>91.236999999999995</v>
       </c>
-      <c r="W8">
+      <c r="X8" s="4">
         <v>91.039000000000001</v>
       </c>
-      <c r="X8">
+      <c r="Y8" s="4">
         <v>91.221999999999994</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Z8" s="4">
         <v>90.066000000000003</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AA8" s="4">
         <v>89.475999999999999</v>
       </c>
-      <c r="AA8">
+      <c r="AB8" s="4">
         <v>90.495000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -3554,31 +3627,34 @@
         <v>70.918000000000006</v>
       </c>
       <c r="T9" s="4">
+        <v>71.688000000000002</v>
+      </c>
+      <c r="U9" s="4">
         <v>81.376000000000005</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="4">
         <v>88.96</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="4">
         <v>89.600999999999999</v>
       </c>
-      <c r="W9">
+      <c r="X9" s="4">
         <v>88.176000000000002</v>
       </c>
-      <c r="X9">
+      <c r="Y9" s="4">
         <v>88.180999999999997</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
         <v>87.040999999999997</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AA9" s="4">
         <v>86.403999999999996</v>
       </c>
-      <c r="AA9">
+      <c r="AB9" s="4">
         <v>87.831999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -3637,31 +3713,34 @@
         <v>74.748000000000005</v>
       </c>
       <c r="T10" s="4">
+        <v>75.52</v>
+      </c>
+      <c r="U10" s="4">
         <v>83.366</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="4">
         <v>90.712999999999994</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="4">
         <v>91.356999999999999</v>
       </c>
-      <c r="W10">
+      <c r="X10" s="4">
         <v>90.945999999999998</v>
       </c>
-      <c r="X10">
+      <c r="Y10" s="4">
         <v>91.292000000000002</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Z10" s="4">
         <v>90.525000000000006</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AA10" s="4">
         <v>90.234999999999999</v>
       </c>
-      <c r="AA10">
+      <c r="AB10" s="4">
         <v>90.84</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3720,31 +3799,34 @@
         <v>84.477000000000004</v>
       </c>
       <c r="T11" s="4">
+        <v>85.063999999999993</v>
+      </c>
+      <c r="U11" s="4">
         <v>87.8</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="4">
         <v>87.308000000000007</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="4">
         <v>86.953000000000003</v>
       </c>
-      <c r="W11">
+      <c r="X11" s="4">
         <v>89.034000000000006</v>
       </c>
-      <c r="X11">
+      <c r="Y11" s="4">
         <v>89.325999999999993</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Z11" s="4">
         <v>89.35</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AA11" s="4">
         <v>89.396000000000001</v>
       </c>
-      <c r="AA11">
+      <c r="AB11" s="4">
         <v>89.796000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -3803,31 +3885,34 @@
         <v>80.352000000000004</v>
       </c>
       <c r="T12" s="4">
+        <v>82.772000000000006</v>
+      </c>
+      <c r="U12" s="4">
         <v>90.948999999999998</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="4">
         <v>91.358999999999995</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="4">
         <v>90.805000000000007</v>
       </c>
-      <c r="W12">
+      <c r="X12" s="4">
         <v>93.025000000000006</v>
       </c>
-      <c r="X12">
+      <c r="Y12" s="4">
         <v>92.998999999999995</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Z12" s="4">
         <v>92.575000000000003</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AA12" s="4">
         <v>91.494</v>
       </c>
-      <c r="AA12">
+      <c r="AB12" s="4">
         <v>92.603999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -3886,31 +3971,34 @@
         <v>92.799000000000007</v>
       </c>
       <c r="T13" s="4">
+        <v>93.394000000000005</v>
+      </c>
+      <c r="U13" s="4">
         <v>94.963999999999999</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="4">
         <v>94.305999999999997</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="4">
         <v>94.31</v>
       </c>
-      <c r="W13">
+      <c r="X13" s="4">
         <v>95.245999999999995</v>
       </c>
-      <c r="X13">
+      <c r="Y13" s="4">
         <v>95.385000000000005</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Z13" s="4">
         <v>95.12</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AA13" s="4">
         <v>94.882000000000005</v>
       </c>
-      <c r="AA13">
+      <c r="AB13" s="4">
         <v>95.055999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -3969,31 +4057,34 @@
         <v>63.517000000000003</v>
       </c>
       <c r="T14" s="4">
+        <v>67.105000000000004</v>
+      </c>
+      <c r="U14" s="4">
         <v>84.784999999999997</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="4">
         <v>83.293999999999997</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="4">
         <v>83.287999999999997</v>
       </c>
-      <c r="W14">
+      <c r="X14" s="4">
         <v>93.572000000000003</v>
       </c>
-      <c r="X14">
+      <c r="Y14" s="4">
         <v>93.561999999999998</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Z14" s="4">
         <v>92.048000000000002</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AA14" s="4">
         <v>90.56</v>
       </c>
-      <c r="AA14">
+      <c r="AB14" s="4">
         <v>92.028999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -4052,31 +4143,34 @@
         <v>81.659000000000006</v>
       </c>
       <c r="T15" s="4">
+        <v>82.325999999999993</v>
+      </c>
+      <c r="U15" s="4">
         <v>87.224999999999994</v>
       </c>
-      <c r="U15" s="5">
+      <c r="V15" s="4">
         <v>88.68</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="4">
         <v>89.025999999999996</v>
       </c>
-      <c r="W15">
+      <c r="X15" s="4">
         <v>88.86</v>
       </c>
-      <c r="X15">
+      <c r="Y15" s="4">
         <v>89.064999999999998</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Z15" s="4">
         <v>88.998000000000005</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AA15" s="4">
         <v>88.921000000000006</v>
       </c>
-      <c r="AA15">
+      <c r="AB15" s="4">
         <v>89.334999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -4135,31 +4229,34 @@
         <v>81.363</v>
       </c>
       <c r="T16" s="4">
+        <v>79.908000000000001</v>
+      </c>
+      <c r="U16" s="4">
         <v>74.832999999999998</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="4">
         <v>84.463999999999999</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="4">
         <v>84.152000000000001</v>
       </c>
-      <c r="W16">
+      <c r="X16" s="4">
         <v>76.55</v>
       </c>
-      <c r="X16">
+      <c r="Y16" s="4">
         <v>76.762</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Z16" s="4">
         <v>81.129000000000005</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AA16" s="4">
         <v>82.391999999999996</v>
       </c>
-      <c r="AA16">
+      <c r="AB16" s="4">
         <v>80.585999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -4218,31 +4315,34 @@
         <v>85.682000000000002</v>
       </c>
       <c r="T17" s="4">
+        <v>84.396000000000001</v>
+      </c>
+      <c r="U17" s="4">
         <v>82.789000000000001</v>
       </c>
-      <c r="U17" s="5">
+      <c r="V17" s="4">
         <v>84.616</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="4">
         <v>85.281000000000006</v>
       </c>
-      <c r="W17">
+      <c r="X17" s="4">
         <v>81.796999999999997</v>
       </c>
-      <c r="X17">
+      <c r="Y17" s="4">
         <v>83.841999999999999</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Z17" s="4">
         <v>86.27</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AA17" s="4">
         <v>88.094999999999999</v>
       </c>
-      <c r="AA17">
+      <c r="AB17" s="4">
         <v>86.477999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -4301,31 +4401,34 @@
         <v>87.86</v>
       </c>
       <c r="T18" s="4">
+        <v>88.436000000000007</v>
+      </c>
+      <c r="U18" s="4">
         <v>92.441000000000003</v>
       </c>
-      <c r="U18" s="5">
+      <c r="V18" s="4">
         <v>90.177999999999997</v>
       </c>
-      <c r="V18" s="5">
+      <c r="W18" s="4">
         <v>91.063999999999993</v>
       </c>
-      <c r="W18">
+      <c r="X18" s="4">
         <v>91.712999999999994</v>
       </c>
-      <c r="X18">
+      <c r="Y18" s="4">
         <v>92.093999999999994</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Z18" s="4">
         <v>91.783000000000001</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AA18" s="4">
         <v>91.784999999999997</v>
       </c>
-      <c r="AA18">
+      <c r="AB18" s="4">
         <v>91.933000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -4384,31 +4487,34 @@
         <v>91.17</v>
       </c>
       <c r="T19" s="4">
+        <v>91.712000000000003</v>
+      </c>
+      <c r="U19" s="4">
         <v>93.766999999999996</v>
       </c>
-      <c r="U19" s="5">
+      <c r="V19" s="4">
         <v>93.013000000000005</v>
       </c>
-      <c r="V19" s="5">
+      <c r="W19" s="4">
         <v>93.009</v>
       </c>
-      <c r="W19">
+      <c r="X19" s="4">
         <v>94.245999999999995</v>
       </c>
-      <c r="X19">
+      <c r="Y19" s="4">
         <v>94.206000000000003</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Z19" s="4">
         <v>93.841999999999999</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AA19" s="4">
         <v>93.463999999999999</v>
       </c>
-      <c r="AA19">
+      <c r="AB19" s="4">
         <v>93.834000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -4467,31 +4573,34 @@
         <v>85.376000000000005</v>
       </c>
       <c r="T20" s="4">
+        <v>85.741</v>
+      </c>
+      <c r="U20" s="4">
         <v>84.95</v>
       </c>
-      <c r="U20" s="5">
+      <c r="V20" s="4">
         <v>86.399000000000001</v>
       </c>
-      <c r="V20" s="5">
+      <c r="W20" s="4">
         <v>85.671999999999997</v>
       </c>
-      <c r="W20">
+      <c r="X20" s="4">
         <v>85.378</v>
       </c>
-      <c r="X20">
+      <c r="Y20" s="4">
         <v>86.16</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Z20" s="4">
         <v>88.936000000000007</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AA20" s="4">
         <v>89.831000000000003</v>
       </c>
-      <c r="AA20">
+      <c r="AB20" s="4">
         <v>90.221999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -4550,3517 +4659,3646 @@
         <v>60.075000000000003</v>
       </c>
       <c r="T21" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="U21" s="4">
         <v>68.031000000000006</v>
       </c>
-      <c r="U21" s="5">
+      <c r="V21" s="4">
         <v>63.68</v>
       </c>
-      <c r="V21" s="5">
+      <c r="W21" s="4">
         <v>66.150000000000006</v>
       </c>
-      <c r="W21">
+      <c r="X21" s="4">
         <v>75.643000000000001</v>
       </c>
-      <c r="X21">
+      <c r="Y21" s="4">
         <v>76.561000000000007</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Z21" s="4">
         <v>77.945999999999998</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AA21" s="4">
         <v>78.885999999999996</v>
       </c>
-      <c r="AA21">
+      <c r="AB21" s="4">
         <v>79.066999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>94.581999999999994</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>94.153999999999996</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>93.587999999999994</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>94.186000000000007</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>92.88</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>94.257999999999996</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>93.08</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>94.323999999999998</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>92.983999999999995</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>94.477999999999994</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>93.47</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>94.745999999999995</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="6">
         <v>94.641999999999996</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="6">
         <v>94.69</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="6">
         <v>94.668000000000006</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="6">
         <v>94.56</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="6">
         <v>94.573999999999998</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="6">
         <v>94.4</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="6">
+        <v>94.715999999999994</v>
+      </c>
+      <c r="U22" s="6">
         <v>95.63</v>
       </c>
-      <c r="U22" s="9">
+      <c r="V22" s="6">
         <v>95.341999999999999</v>
       </c>
-      <c r="V22" s="9">
+      <c r="W22" s="6">
         <v>95.364000000000004</v>
       </c>
-      <c r="W22">
+      <c r="X22" s="6">
         <v>95.825999999999993</v>
       </c>
-      <c r="X22">
+      <c r="Y22" s="6">
         <v>95.906000000000006</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="Z22" s="6">
         <v>95.756</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="AA22" s="6">
         <v>95.512</v>
       </c>
-      <c r="AA22">
+      <c r="AB22" s="6">
         <v>95.65</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>94.22</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>94.186000000000007</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>93.608000000000004</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>94.177999999999997</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>92.88</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>94.197999999999993</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>93.126000000000005</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>94.346000000000004</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>92.994</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>94.481999999999999</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>93.418000000000006</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>94.646000000000001</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="6">
         <v>94.483999999999995</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="6">
         <v>94.475999999999999</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="6">
         <v>94.513999999999996</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="6">
         <v>94.512</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="6">
         <v>94.55</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="6">
         <v>94.361999999999995</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="6">
+        <v>94.652000000000001</v>
+      </c>
+      <c r="U23" s="6">
         <v>95.378</v>
       </c>
-      <c r="U23" s="9">
+      <c r="V23" s="6">
         <v>95.262</v>
       </c>
-      <c r="V23" s="9">
+      <c r="W23" s="6">
         <v>95.248000000000005</v>
       </c>
-      <c r="W23">
+      <c r="X23" s="6">
         <v>95.548000000000002</v>
       </c>
-      <c r="X23">
+      <c r="Y23" s="6">
         <v>95.745999999999995</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Z23" s="6">
         <v>95.653999999999996</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="AA23" s="6">
         <v>95.412000000000006</v>
       </c>
-      <c r="AA23">
+      <c r="AB23" s="6">
         <v>95.587999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>93.894000000000005</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>94.152000000000001</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>93.528000000000006</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>94.203999999999994</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>92.897999999999996</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>94.221999999999994</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>93.116</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>94.287999999999997</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>92.977999999999994</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>94.498000000000005</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>93.424000000000007</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="6">
         <v>94.488</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="6">
         <v>94.34</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="6">
         <v>94.378</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="6">
         <v>94.462000000000003</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="6">
         <v>94.376000000000005</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="6">
         <v>94.558000000000007</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="6">
         <v>94.33</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="6">
+        <v>94.597999999999999</v>
+      </c>
+      <c r="U24" s="6">
         <v>95.153999999999996</v>
       </c>
-      <c r="U24" s="9">
+      <c r="V24" s="6">
         <v>95.158000000000001</v>
       </c>
-      <c r="V24" s="9">
+      <c r="W24" s="6">
         <v>95.168000000000006</v>
       </c>
-      <c r="W24">
+      <c r="X24" s="6">
         <v>95.465999999999994</v>
       </c>
-      <c r="X24">
+      <c r="Y24" s="6">
         <v>95.46</v>
       </c>
-      <c r="Y24" s="8">
+      <c r="Z24" s="6">
         <v>95.561999999999998</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="AA24" s="6">
         <v>95.408000000000001</v>
       </c>
-      <c r="AA24">
+      <c r="AB24" s="6">
         <v>95.62</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>94.328000000000003</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>94.19</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>93.593999999999994</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>94.168000000000006</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>92.914000000000001</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>94.26</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <v>93.073999999999998</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <v>94.275999999999996</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>92.988</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <v>94.498000000000005</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>93.406000000000006</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="6">
         <v>94.634</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="6">
         <v>94.554000000000002</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="6">
         <v>94.566000000000003</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="6">
         <v>94.575999999999993</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="6">
         <v>94.49</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="6">
         <v>94.5</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="6">
         <v>94.426000000000002</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="6">
+        <v>94.635999999999996</v>
+      </c>
+      <c r="U25" s="6">
         <v>95.414000000000001</v>
       </c>
-      <c r="U25" s="9">
+      <c r="V25" s="6">
         <v>95.298000000000002</v>
       </c>
-      <c r="V25" s="9">
+      <c r="W25" s="6">
         <v>95.245999999999995</v>
       </c>
-      <c r="W25">
+      <c r="X25" s="6">
         <v>95.602000000000004</v>
       </c>
-      <c r="X25">
+      <c r="Y25" s="6">
         <v>95.733999999999995</v>
       </c>
-      <c r="Y25" s="8">
+      <c r="Z25" s="6">
         <v>95.652000000000001</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="AA25" s="6">
         <v>95.477999999999994</v>
       </c>
-      <c r="AA25">
+      <c r="AB25" s="6">
         <v>95.578000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>94.224000000000004</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>94.141999999999996</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>93.58</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>94.245999999999995</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>92.884</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>94.206000000000003</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>93.105999999999995</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>94.292000000000002</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>93.013999999999996</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>94.507999999999996</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>93.402000000000001</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <v>94.605999999999995</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="6">
         <v>94.49</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="6">
         <v>94.64</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="6">
         <v>94.6</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="6">
         <v>94.492000000000004</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="6">
         <v>94.552000000000007</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="6">
         <v>94.367999999999995</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="6">
+        <v>94.603999999999999</v>
+      </c>
+      <c r="U26" s="6">
         <v>95.385999999999996</v>
       </c>
-      <c r="U26" s="9">
+      <c r="V26" s="6">
         <v>95.213999999999999</v>
       </c>
-      <c r="V26" s="9">
+      <c r="W26" s="6">
         <v>95.331999999999994</v>
       </c>
-      <c r="W26">
+      <c r="X26" s="6">
         <v>95.62</v>
       </c>
-      <c r="X26">
+      <c r="Y26" s="6">
         <v>95.694000000000003</v>
       </c>
-      <c r="Y26" s="8">
+      <c r="Z26" s="6">
         <v>95.628</v>
       </c>
-      <c r="Z26" s="8">
+      <c r="AA26" s="6">
         <v>95.468000000000004</v>
       </c>
-      <c r="AA26">
+      <c r="AB26" s="6">
         <v>95.634</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>94.353999999999999</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>94.203999999999994</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>93.548000000000002</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="6">
         <v>94.206000000000003</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>92.876000000000005</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>94.266000000000005</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <v>93.06</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="6">
         <v>94.272000000000006</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="6">
         <v>92.974000000000004</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="6">
         <v>94.486000000000004</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="6">
         <v>93.427999999999997</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="6">
         <v>94.677999999999997</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="6">
         <v>94.55</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="6">
         <v>94.638000000000005</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="6">
         <v>94.626000000000005</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="6">
         <v>94.51</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="6">
         <v>94.5</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="6">
         <v>94.385999999999996</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="6">
+        <v>94.64</v>
+      </c>
+      <c r="U27" s="6">
         <v>95.48</v>
       </c>
-      <c r="U27" s="9">
+      <c r="V27" s="6">
         <v>95.238</v>
       </c>
-      <c r="V27" s="9">
+      <c r="W27" s="6">
         <v>95.3</v>
       </c>
-      <c r="W27">
+      <c r="X27" s="6">
         <v>95.677999999999997</v>
       </c>
-      <c r="X27">
+      <c r="Y27" s="6">
         <v>95.8</v>
       </c>
-      <c r="Y27" s="8">
+      <c r="Z27" s="6">
         <v>95.677999999999997</v>
       </c>
-      <c r="Z27" s="8">
+      <c r="AA27" s="6">
         <v>95.53</v>
       </c>
-      <c r="AA27">
+      <c r="AB27" s="6">
         <v>95.634</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>93.84</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>94.162000000000006</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>93.566000000000003</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>94.25</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>92.89</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>94.186000000000007</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>93.078000000000003</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>94.328000000000003</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>92.995999999999995</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>94.445999999999998</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>93.45</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
         <v>94.42</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>94.34</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>94.382000000000005</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>94.494</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="5">
         <v>94.406000000000006</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="5">
         <v>94.46</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="5">
         <v>94.304000000000002</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="5">
+        <v>94.622</v>
+      </c>
+      <c r="U28" s="5">
         <v>95.087999999999994</v>
       </c>
-      <c r="U28" s="7">
+      <c r="V28" s="5">
         <v>95.141999999999996</v>
       </c>
-      <c r="V28" s="7">
+      <c r="W28" s="5">
         <v>95.085999999999999</v>
       </c>
-      <c r="W28">
+      <c r="X28" s="5">
         <v>95.343999999999994</v>
       </c>
-      <c r="X28">
+      <c r="Y28" s="5">
         <v>95.495999999999995</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Z28" s="5">
         <v>95.597999999999999</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AA28" s="5">
         <v>95.42</v>
       </c>
-      <c r="AA28">
+      <c r="AB28" s="5">
         <v>95.597999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>92.414000000000001</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>94.195999999999998</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>93.584000000000003</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>94.031999999999996</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>92.912000000000006</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>94.031999999999996</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>93.126000000000005</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>94.227999999999994</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>93.054000000000002</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>94.352000000000004</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>93.433999999999997</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="5">
         <v>93.7</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>93.634</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <v>93.656000000000006</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="5">
         <v>93.864000000000004</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="5">
         <v>94.147999999999996</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="5">
         <v>94.322000000000003</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="5">
         <v>94.287999999999997</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="5">
+        <v>94.45</v>
+      </c>
+      <c r="U29" s="5">
         <v>94.141999999999996</v>
       </c>
-      <c r="U29" s="7">
+      <c r="V29" s="5">
         <v>94.602000000000004</v>
       </c>
-      <c r="V29" s="7">
+      <c r="W29" s="5">
         <v>94.617999999999995</v>
       </c>
-      <c r="W29">
+      <c r="X29" s="5">
         <v>94.56</v>
       </c>
-      <c r="X29">
+      <c r="Y29" s="5">
         <v>94.635999999999996</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Z29" s="5">
         <v>95.474000000000004</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="AA29" s="5">
         <v>95.367999999999995</v>
       </c>
-      <c r="AA29">
+      <c r="AB29" s="5">
         <v>95.388000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>86.733999999999995</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>93.51</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>93.57</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>93.445999999999998</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>92.988</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>93.355999999999995</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>93.114000000000004</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>93.447999999999993</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>93.153999999999996</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>93.488</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>93.364000000000004</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="5">
         <v>90.21</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <v>90.278000000000006</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>90.546000000000006</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="5">
         <v>91.635999999999996</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="5">
         <v>92.597999999999999</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="5">
         <v>93.701999999999998</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="5">
         <v>93.744</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="5">
+        <v>93.811999999999998</v>
+      </c>
+      <c r="U30" s="5">
         <v>90.38</v>
       </c>
-      <c r="U30" s="7">
+      <c r="V30" s="5">
         <v>92.79</v>
       </c>
-      <c r="V30" s="7">
+      <c r="W30" s="5">
         <v>92.98</v>
       </c>
-      <c r="W30">
+      <c r="X30" s="5">
         <v>91.445999999999998</v>
       </c>
-      <c r="X30">
+      <c r="Y30" s="5">
         <v>92.287999999999997</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Z30" s="5">
         <v>94.792000000000002</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="AA30" s="5">
         <v>94.852000000000004</v>
       </c>
-      <c r="AA30">
+      <c r="AB30" s="5">
         <v>94.896000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>57.962000000000003</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>82.054000000000002</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>88.953999999999994</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>82.225999999999999</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>91.274000000000001</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>80.41</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>91.263999999999996</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>79.878</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>91.462000000000003</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>81.225999999999999</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>91.77</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <v>71.3</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>70.481999999999999</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <v>75.733999999999995</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <v>78.816000000000003</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5">
         <v>81.986000000000004</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="5">
         <v>86.641999999999996</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="5">
         <v>87.07</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="5">
+        <v>88.548000000000002</v>
+      </c>
+      <c r="U31" s="5">
         <v>70.823999999999998</v>
       </c>
-      <c r="U31" s="7">
+      <c r="V31" s="5">
         <v>82.066000000000003</v>
       </c>
-      <c r="V31" s="7">
+      <c r="W31" s="5">
         <v>84.62</v>
       </c>
-      <c r="W31">
+      <c r="X31" s="5">
         <v>75.067999999999998</v>
       </c>
-      <c r="X31">
+      <c r="Y31" s="5">
         <v>79.492000000000004</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Z31" s="5">
         <v>88.364000000000004</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="AA31" s="5">
         <v>89.12</v>
       </c>
-      <c r="AA31">
+      <c r="AB31" s="5">
         <v>90.834000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>94.691999999999993</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>94.085999999999999</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>93.364000000000004</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>94.096000000000004</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>92.786000000000001</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>94.16</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>92.933999999999997</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>94.201999999999998</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>92.76</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>94.385999999999996</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>93.317999999999998</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <v>94.742000000000004</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <v>94.575999999999993</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>94.674000000000007</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="5">
         <v>94.644000000000005</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <v>94.483999999999995</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="5">
         <v>94.426000000000002</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="5">
         <v>94.302000000000007</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="5">
+        <v>94.611999999999995</v>
+      </c>
+      <c r="U32" s="5">
         <v>95.72</v>
       </c>
-      <c r="U32" s="7">
+      <c r="V32" s="5">
         <v>95.373999999999995</v>
       </c>
-      <c r="V32" s="7">
+      <c r="W32" s="5">
         <v>95.367999999999995</v>
       </c>
-      <c r="W32">
+      <c r="X32" s="5">
         <v>95.924000000000007</v>
       </c>
-      <c r="X32">
+      <c r="Y32" s="5">
         <v>96.04</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Z32" s="5">
         <v>95.731999999999999</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="AA32" s="5">
         <v>95.421999999999997</v>
       </c>
-      <c r="AA32">
+      <c r="AB32" s="5">
         <v>95.608000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>92.995999999999995</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>91.834000000000003</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>90.823999999999998</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>91.992000000000004</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>89.808000000000007</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>92.048000000000002</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>90.352000000000004</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>92.031999999999996</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>90.06</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>92.213999999999999</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>90.872</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <v>92.774000000000001</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>92.48</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <v>92.632000000000005</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="5">
         <v>92.596000000000004</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <v>92.245999999999995</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="5">
         <v>92.44</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="5">
         <v>91.941999999999993</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="5">
+        <v>92.6</v>
+      </c>
+      <c r="U33" s="5">
         <v>94.593999999999994</v>
       </c>
-      <c r="U33" s="7">
+      <c r="V33" s="5">
         <v>93.712000000000003</v>
       </c>
-      <c r="V33" s="7">
+      <c r="W33" s="5">
         <v>93.66</v>
       </c>
-      <c r="W33">
+      <c r="X33" s="5">
         <v>95.183999999999997</v>
       </c>
-      <c r="X33">
+      <c r="Y33" s="5">
         <v>95.1</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Z33" s="5">
         <v>94.727999999999994</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="AA33" s="5">
         <v>94.367999999999995</v>
       </c>
-      <c r="AA33">
+      <c r="AB33" s="5">
         <v>94.674000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>91.975999999999999</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>94.01</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>93.581999999999994</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>94.052000000000007</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>92.927999999999997</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>94.05</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>93.21</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>94.18</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>93.09</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>94.238</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <v>93.45</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="5">
         <v>93.468000000000004</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <v>93.406000000000006</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <v>93.578000000000003</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="5">
         <v>93.876000000000005</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="5">
         <v>94.141999999999996</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="5">
         <v>94.323999999999998</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="5">
         <v>94.311999999999998</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="5">
+        <v>94.474000000000004</v>
+      </c>
+      <c r="U34" s="5">
         <v>93.953999999999994</v>
       </c>
-      <c r="U34" s="7">
+      <c r="V34" s="5">
         <v>94.451999999999998</v>
       </c>
-      <c r="V34" s="7">
+      <c r="W34" s="5">
         <v>94.55</v>
       </c>
-      <c r="W34">
+      <c r="X34" s="5">
         <v>94.361999999999995</v>
       </c>
-      <c r="X34">
+      <c r="Y34" s="5">
         <v>94.53</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="Z34" s="5">
         <v>95.424000000000007</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="AA34" s="5">
         <v>95.372</v>
       </c>
-      <c r="AA34">
+      <c r="AB34" s="5">
         <v>95.438000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>80.275999999999996</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>92.031999999999996</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>93.207999999999998</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>91.914000000000001</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>92.897999999999996</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>91.474000000000004</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>92.981999999999999</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>91.688000000000002</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>92.9</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>91.805999999999997</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
         <v>93.067999999999998</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
         <v>87.286000000000001</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <v>87.263999999999996</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <v>89.614000000000004</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="5">
         <v>90.971999999999994</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35" s="5">
         <v>92.197999999999993</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="5">
         <v>92.853999999999999</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="5">
         <v>93.231999999999999</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="5">
+        <v>93.146000000000001</v>
+      </c>
+      <c r="U35" s="5">
         <v>86.733999999999995</v>
       </c>
-      <c r="U35" s="7">
+      <c r="V35" s="5">
         <v>90.453999999999994</v>
       </c>
-      <c r="V35" s="7">
+      <c r="W35" s="5">
         <v>91.665999999999997</v>
       </c>
-      <c r="W35">
+      <c r="X35" s="5">
         <v>88.036000000000001</v>
       </c>
-      <c r="X35">
+      <c r="Y35" s="5">
         <v>90.418000000000006</v>
       </c>
-      <c r="Y35" s="6">
+      <c r="Z35" s="5">
         <v>94.03</v>
       </c>
-      <c r="Z35" s="6">
+      <c r="AA35" s="5">
         <v>94.406000000000006</v>
       </c>
-      <c r="AA35">
+      <c r="AB35" s="5">
         <v>94.403999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>27.718</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>48.084000000000003</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>62.411999999999999</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>49.823999999999998</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>76.828000000000003</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>44.037999999999997</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>75.28</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>42.963999999999999</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>76.055999999999997</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>44.786000000000001</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
         <v>79.14</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="5">
         <v>54.107999999999997</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <v>54.844000000000001</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <v>67.073999999999998</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <v>72.382000000000005</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="5">
         <v>77.825999999999993</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="5">
         <v>76.364000000000004</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="5">
         <v>78.683999999999997</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="5">
+        <v>80.504000000000005</v>
+      </c>
+      <c r="U36" s="5">
         <v>47.396000000000001</v>
       </c>
-      <c r="U36" s="7">
+      <c r="V36" s="5">
         <v>64.414000000000001</v>
       </c>
-      <c r="V36" s="7">
+      <c r="W36" s="5">
         <v>75.736000000000004</v>
       </c>
-      <c r="W36">
+      <c r="X36" s="5">
         <v>48.92</v>
       </c>
-      <c r="X36">
+      <c r="Y36" s="5">
         <v>65.33</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Z36" s="5">
         <v>78.847999999999999</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="AA36" s="5">
         <v>81.33</v>
       </c>
-      <c r="AA36">
+      <c r="AB36" s="5">
         <v>85.102000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>92.17</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>94.097999999999999</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>93.638000000000005</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>94.132000000000005</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>92.968000000000004</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>94.07</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>93.188000000000002</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>94.152000000000001</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>93.108000000000004</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>94.337999999999994</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <v>93.372</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
         <v>93.56</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="5">
         <v>93.573999999999998</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <v>93.608000000000004</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="5">
         <v>93.867999999999995</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="5">
         <v>94.126000000000005</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="5">
         <v>94.262</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="5">
         <v>94.225999999999999</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="5">
+        <v>94.384</v>
+      </c>
+      <c r="U37" s="5">
         <v>94.054000000000002</v>
       </c>
-      <c r="U37" s="7">
+      <c r="V37" s="5">
         <v>94.585999999999999</v>
       </c>
-      <c r="V37" s="7">
+      <c r="W37" s="5">
         <v>94.63</v>
       </c>
-      <c r="W37">
+      <c r="X37" s="5">
         <v>94.384</v>
       </c>
-      <c r="X37">
+      <c r="Y37" s="5">
         <v>94.695999999999998</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Z37" s="5">
         <v>95.433999999999997</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="AA37" s="5">
         <v>95.337999999999994</v>
       </c>
-      <c r="AA37">
+      <c r="AB37" s="5">
         <v>95.414000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>81.47</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>92.317999999999998</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>93.156000000000006</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>92.245999999999995</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>92.878</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>91.798000000000002</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>93.07</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>91.932000000000002</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>93.102000000000004</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>91.971999999999994</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <v>93.19</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="5">
         <v>87.944000000000003</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <v>88.013999999999996</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="5">
         <v>90.016000000000005</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="5">
         <v>91.197999999999993</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="5">
         <v>92.444000000000003</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="5">
         <v>92.97</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="5">
         <v>93.302000000000007</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="5">
+        <v>93.195999999999998</v>
+      </c>
+      <c r="U38" s="5">
         <v>87.59</v>
       </c>
-      <c r="U38" s="7">
+      <c r="V38" s="5">
         <v>90.897999999999996</v>
       </c>
-      <c r="V38" s="7">
+      <c r="W38" s="5">
         <v>91.87</v>
       </c>
-      <c r="W38">
+      <c r="X38" s="5">
         <v>88.674000000000007</v>
       </c>
-      <c r="X38">
+      <c r="Y38" s="5">
         <v>90.89</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Z38" s="5">
         <v>94.103999999999999</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="AA38" s="5">
         <v>94.512</v>
       </c>
-      <c r="AA38">
+      <c r="AB38" s="5">
         <v>94.457999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>29.623999999999999</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>51.003999999999998</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>65.766000000000005</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>52.677999999999997</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>78.691999999999993</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>47.537999999999997</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>77.616</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>45.984000000000002</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>78.168000000000006</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>48.124000000000002</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
         <v>80.8</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="5">
         <v>56.481999999999999</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <v>56.496000000000002</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <v>68.569999999999993</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="5">
         <v>73.674000000000007</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39" s="5">
         <v>79.043999999999997</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="5">
         <v>77.731999999999999</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="5">
         <v>80.122</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="5">
+        <v>81.701999999999998</v>
+      </c>
+      <c r="U39" s="5">
         <v>49.417999999999999</v>
       </c>
-      <c r="U39" s="7">
+      <c r="V39" s="5">
         <v>66.364000000000004</v>
       </c>
-      <c r="V39" s="7">
+      <c r="W39" s="5">
         <v>76.983999999999995</v>
       </c>
-      <c r="W39">
+      <c r="X39" s="5">
         <v>51.533999999999999</v>
       </c>
-      <c r="X39">
+      <c r="Y39" s="5">
         <v>67.402000000000001</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Z39" s="5">
         <v>80.373999999999995</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="AA39" s="5">
         <v>82.766000000000005</v>
       </c>
-      <c r="AA39">
+      <c r="AB39" s="5">
         <v>85.757999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>92.272000000000006</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>94.132000000000005</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>93.591999999999999</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>94.123999999999995</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>92.98</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>94.134</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>93.084000000000003</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>94.182000000000002</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>93.072000000000003</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>94.292000000000002</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="5">
         <v>93.39</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="5">
         <v>93.578000000000003</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <v>93.581999999999994</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <v>93.688000000000002</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <v>93.944000000000003</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="5">
         <v>94.126000000000005</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="5">
         <v>94.39</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="5">
         <v>94.227999999999994</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="5">
+        <v>94.436000000000007</v>
+      </c>
+      <c r="U40" s="5">
         <v>94.037999999999997</v>
       </c>
-      <c r="U40" s="7">
+      <c r="V40" s="5">
         <v>94.626000000000005</v>
       </c>
-      <c r="V40" s="7">
+      <c r="W40" s="5">
         <v>94.647999999999996</v>
       </c>
-      <c r="W40">
+      <c r="X40" s="5">
         <v>94.585999999999999</v>
       </c>
-      <c r="X40">
+      <c r="Y40" s="5">
         <v>94.677999999999997</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Z40" s="5">
         <v>95.438000000000002</v>
       </c>
-      <c r="Z40" s="6">
+      <c r="AA40" s="5">
         <v>95.268000000000001</v>
       </c>
-      <c r="AA40">
+      <c r="AB40" s="5">
         <v>95.421999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>81.835999999999999</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>92.558000000000007</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>93.22</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>92.427999999999997</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>92.902000000000001</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>92.126000000000005</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>93.093999999999994</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>92.144000000000005</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>93.05</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>92.305999999999997</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <v>93.19</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="5">
         <v>88.32</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <v>88.382000000000005</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <v>90.054000000000002</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="5">
         <v>91.248000000000005</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="5">
         <v>92.382000000000005</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="5">
         <v>93.097999999999999</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="5">
         <v>93.396000000000001</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="5">
+        <v>93.36</v>
+      </c>
+      <c r="U41" s="5">
         <v>87.872</v>
       </c>
-      <c r="U41" s="7">
+      <c r="V41" s="5">
         <v>91.2</v>
       </c>
-      <c r="V41" s="7">
+      <c r="W41" s="5">
         <v>92.176000000000002</v>
       </c>
-      <c r="W41">
+      <c r="X41" s="5">
         <v>88.992000000000004</v>
       </c>
-      <c r="X41">
+      <c r="Y41" s="5">
         <v>90.983999999999995</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="Z41" s="5">
         <v>94.316000000000003</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="AA41" s="5">
         <v>94.516000000000005</v>
       </c>
-      <c r="AA41">
+      <c r="AB41" s="5">
         <v>94.516000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>44.962000000000003</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>71.268000000000001</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>81.78</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>71.89</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>88.037999999999997</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>68.38</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>87.492000000000004</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>67.400000000000006</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>87.977999999999994</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>69.756</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <v>88.975999999999999</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="5">
         <v>68.366</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <v>68.591999999999999</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <v>77.292000000000002</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="5">
         <v>81.091999999999999</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="5">
         <v>84.775999999999996</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="5">
         <v>84.888000000000005</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="5">
         <v>86.808000000000007</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="5">
+        <v>87.367999999999995</v>
+      </c>
+      <c r="U42" s="5">
         <v>63.863999999999997</v>
       </c>
-      <c r="U42" s="7">
+      <c r="V42" s="5">
         <v>76.262</v>
       </c>
-      <c r="V42" s="7">
+      <c r="W42" s="5">
         <v>83.256</v>
       </c>
-      <c r="W42">
+      <c r="X42" s="5">
         <v>66.263999999999996</v>
       </c>
-      <c r="X42">
+      <c r="Y42" s="5">
         <v>77.42</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Z42" s="5">
         <v>87.168000000000006</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="AA42" s="5">
         <v>88.876000000000005</v>
       </c>
-      <c r="AA42">
+      <c r="AB42" s="5">
         <v>90.036000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>90.694000000000003</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>93.981999999999999</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>93.566000000000003</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>93.95</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>92.988</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>93.936000000000007</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>93.213999999999999</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <v>94.024000000000001</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>93.141999999999996</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>94.067999999999998</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
         <v>93.462000000000003</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="5">
         <v>92.974000000000004</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <v>92.912000000000006</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="5">
         <v>93.123999999999995</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="5">
         <v>93.52</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43" s="5">
         <v>93.817999999999998</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="5">
         <v>94.12</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="5">
         <v>94.186000000000007</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="5">
+        <v>94.201999999999998</v>
+      </c>
+      <c r="U43" s="5">
         <v>93.164000000000001</v>
       </c>
-      <c r="U43" s="7">
+      <c r="V43" s="5">
         <v>94.194000000000003</v>
       </c>
-      <c r="V43" s="7">
+      <c r="W43" s="5">
         <v>94.207999999999998</v>
       </c>
-      <c r="W43">
+      <c r="X43" s="5">
         <v>93.748000000000005</v>
       </c>
-      <c r="X43">
+      <c r="Y43" s="5">
         <v>94.188000000000002</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="Z43" s="5">
         <v>95.268000000000001</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="AA43" s="5">
         <v>95.156000000000006</v>
       </c>
-      <c r="AA43">
+      <c r="AB43" s="5">
         <v>95.24</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>75.037999999999997</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>90.194000000000003</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>92.378</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>90.144000000000005</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>92.676000000000002</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>89.406000000000006</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>92.757999999999996</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <v>89.488</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>92.986000000000004</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>89.86</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="5">
         <v>92.98</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="5">
         <v>84.584000000000003</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="5">
         <v>84.602000000000004</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="5">
         <v>87.731999999999999</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="5">
         <v>89.481999999999999</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="5">
         <v>91.311999999999998</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="5">
         <v>92.03</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="5">
         <v>92.534000000000006</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="5">
+        <v>92.456000000000003</v>
+      </c>
+      <c r="U44" s="5">
         <v>83.808000000000007</v>
       </c>
-      <c r="U44" s="7">
+      <c r="V44" s="5">
         <v>88.54</v>
       </c>
-      <c r="V44" s="7">
+      <c r="W44" s="5">
         <v>90.563999999999993</v>
       </c>
-      <c r="W44">
+      <c r="X44" s="5">
         <v>85.13</v>
       </c>
-      <c r="X44">
+      <c r="Y44" s="5">
         <v>88.751999999999995</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="Z44" s="5">
         <v>93.346000000000004</v>
       </c>
-      <c r="Z44" s="6">
+      <c r="AA44" s="5">
         <v>93.828000000000003</v>
       </c>
-      <c r="AA44">
+      <c r="AB44" s="5">
         <v>93.906000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>21.268000000000001</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>36.192</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>48.66</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>37.707999999999998</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>66.567999999999998</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>32.06</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>64.438000000000002</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>31.335999999999999</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>65.134</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>31.905999999999999</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="5">
         <v>69.628</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="5">
         <v>46.508000000000003</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="5">
         <v>47.292000000000002</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="5">
         <v>60.13</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="5">
         <v>66.488</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="5">
         <v>72.831999999999994</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="5">
         <v>69.906000000000006</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="5">
         <v>72.647999999999996</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="5">
+        <v>75.7</v>
+      </c>
+      <c r="U45" s="5">
         <v>38.96</v>
       </c>
-      <c r="U45" s="7">
+      <c r="V45" s="5">
         <v>57.048000000000002</v>
       </c>
-      <c r="V45" s="7">
+      <c r="W45" s="5">
         <v>70.938000000000002</v>
       </c>
-      <c r="W45">
+      <c r="X45" s="5">
         <v>40.276000000000003</v>
       </c>
-      <c r="X45">
+      <c r="Y45" s="5">
         <v>57.564</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="Z45" s="5">
         <v>71.938000000000002</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="AA45" s="5">
         <v>75.507999999999996</v>
       </c>
-      <c r="AA45">
+      <c r="AB45" s="5">
         <v>80.69</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>90.36</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>93.86</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>93.623999999999995</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>93.906000000000006</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>92.95</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>93.808000000000007</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>93.186000000000007</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>93.99</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>93.102000000000004</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>94.073999999999998</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="5">
         <v>93.347999999999999</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="5">
         <v>92.516000000000005</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="5">
         <v>92.57</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="5">
         <v>92.957999999999998</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="5">
         <v>93.42</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="5">
         <v>93.808000000000007</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="5">
         <v>94.152000000000001</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="5">
         <v>94.183999999999997</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="5">
+        <v>94.231999999999999</v>
+      </c>
+      <c r="U46" s="5">
         <v>92.872</v>
       </c>
-      <c r="U46" s="7">
+      <c r="V46" s="5">
         <v>93.962000000000003</v>
       </c>
-      <c r="V46" s="7">
+      <c r="W46" s="5">
         <v>94.132000000000005</v>
       </c>
-      <c r="W46">
+      <c r="X46" s="5">
         <v>93.483999999999995</v>
       </c>
-      <c r="X46">
+      <c r="Y46" s="5">
         <v>93.891999999999996</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="Z46" s="5">
         <v>95.212000000000003</v>
       </c>
-      <c r="Z46" s="6">
+      <c r="AA46" s="5">
         <v>95.245999999999995</v>
       </c>
-      <c r="AA46">
+      <c r="AB46" s="5">
         <v>95.272000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>72.88</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>89.366</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>92.036000000000001</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>89.29</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>92.494</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>88.525999999999996</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>92.703999999999994</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>88.391999999999996</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>92.665999999999997</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>88.87</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="5">
         <v>92.813999999999993</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="5">
         <v>83.653999999999996</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="5">
         <v>83.727999999999994</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="5">
         <v>87.165999999999997</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="5">
         <v>89.177999999999997</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="Q47" s="5">
         <v>90.947999999999993</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="5">
         <v>91.658000000000001</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="5">
         <v>92.296000000000006</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="5">
+        <v>92.15</v>
+      </c>
+      <c r="U47" s="5">
         <v>82.352000000000004</v>
       </c>
-      <c r="U47" s="7">
+      <c r="V47" s="5">
         <v>87.754000000000005</v>
       </c>
-      <c r="V47" s="7">
+      <c r="W47" s="5">
         <v>90.016000000000005</v>
       </c>
-      <c r="W47">
+      <c r="X47" s="5">
         <v>84.043999999999997</v>
       </c>
-      <c r="X47">
+      <c r="Y47" s="5">
         <v>88.024000000000001</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="Z47" s="5">
         <v>93.093999999999994</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="AA47" s="5">
         <v>93.617999999999995</v>
       </c>
-      <c r="AA47">
+      <c r="AB47" s="5">
         <v>93.721999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>22.716000000000001</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>38.701999999999998</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>51.283999999999999</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>40.154000000000003</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>68.328000000000003</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>34.862000000000002</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>66.117999999999995</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>34.026000000000003</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>67.108000000000004</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>34.543999999999997</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="5">
         <v>70.994</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="5">
         <v>48.01</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="5">
         <v>48.554000000000002</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="5">
         <v>61.51</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="5">
         <v>67.343999999999994</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48" s="5">
         <v>73.87</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="5">
         <v>70.927999999999997</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="5">
         <v>73.846000000000004</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="5">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="U48" s="5">
         <v>40.826000000000001</v>
       </c>
-      <c r="U48" s="7">
+      <c r="V48" s="5">
         <v>58.71</v>
       </c>
-      <c r="V48" s="7">
+      <c r="W48" s="5">
         <v>72.099999999999994</v>
       </c>
-      <c r="W48">
+      <c r="X48" s="5">
         <v>42.026000000000003</v>
       </c>
-      <c r="X48">
+      <c r="Y48" s="5">
         <v>59.085999999999999</v>
       </c>
-      <c r="Y48" s="6">
+      <c r="Z48" s="5">
         <v>73.581999999999994</v>
       </c>
-      <c r="Z48" s="6">
+      <c r="AA48" s="5">
         <v>76.174000000000007</v>
       </c>
-      <c r="AA48">
+      <c r="AB48" s="5">
         <v>81.498000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>92.585999999999999</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>94.102000000000004</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>93.581999999999994</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>94.135999999999996</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>92.938000000000002</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>94.134</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>93.18</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>94.21</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <v>93.055999999999997</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>94.38</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="5">
         <v>93.47</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="5">
         <v>93.843999999999994</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="5">
         <v>93.83</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="5">
         <v>93.817999999999998</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="5">
         <v>94.028000000000006</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q49" s="5">
         <v>94.171999999999997</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="5">
         <v>94.403999999999996</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="5">
         <v>94.3</v>
       </c>
-      <c r="T49" s="6">
+      <c r="T49" s="5">
+        <v>94.384</v>
+      </c>
+      <c r="U49" s="5">
         <v>94.302000000000007</v>
       </c>
-      <c r="U49" s="7">
+      <c r="V49" s="5">
         <v>94.736000000000004</v>
       </c>
-      <c r="V49" s="7">
+      <c r="W49" s="5">
         <v>94.796000000000006</v>
       </c>
-      <c r="W49">
+      <c r="X49" s="5">
         <v>94.748000000000005</v>
       </c>
-      <c r="X49">
+      <c r="Y49" s="5">
         <v>94.912000000000006</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="Z49" s="5">
         <v>95.474000000000004</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="AA49" s="5">
         <v>95.32</v>
       </c>
-      <c r="AA49">
+      <c r="AB49" s="5">
         <v>95.47</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>83.861999999999995</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>92.82</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>93.323999999999998</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>92.808000000000007</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>92.953999999999994</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>92.426000000000002</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>93.18</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>92.656000000000006</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <v>93.08</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>92.762</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="5">
         <v>93.236000000000004</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50" s="5">
         <v>89.372</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50" s="5">
         <v>89.313999999999993</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="5">
         <v>90.664000000000001</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="5">
         <v>91.712000000000003</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50" s="5">
         <v>92.817999999999998</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="5">
         <v>93.325999999999993</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="5">
         <v>93.584000000000003</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50" s="5">
+        <v>93.462000000000003</v>
+      </c>
+      <c r="U50" s="5">
         <v>88.932000000000002</v>
       </c>
-      <c r="U50" s="7">
+      <c r="V50" s="5">
         <v>91.798000000000002</v>
       </c>
-      <c r="V50" s="7">
+      <c r="W50" s="5">
         <v>92.53</v>
       </c>
-      <c r="W50">
+      <c r="X50" s="5">
         <v>89.98</v>
       </c>
-      <c r="X50">
+      <c r="Y50" s="5">
         <v>91.664000000000001</v>
       </c>
-      <c r="Y50" s="6">
+      <c r="Z50" s="5">
         <v>94.41</v>
       </c>
-      <c r="Z50" s="6">
+      <c r="AA50" s="5">
         <v>94.701999999999998</v>
       </c>
-      <c r="AA50">
+      <c r="AB50" s="5">
         <v>94.74</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>36.445999999999998</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>59.512</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>72.290000000000006</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>60.917999999999999</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>82.798000000000002</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>56.481999999999999</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>81.662000000000006</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>55.125999999999998</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <v>82.116</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>57.268000000000001</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="5">
         <v>84.24</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="5">
         <v>61.262</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="5">
         <v>61.787999999999997</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="5">
         <v>72.281999999999996</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="5">
         <v>76.784000000000006</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51" s="5">
         <v>81.525999999999996</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="5">
         <v>80.707999999999998</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="5">
         <v>82.772000000000006</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="5">
+        <v>84.063999999999993</v>
+      </c>
+      <c r="U51" s="5">
         <v>55.822000000000003</v>
       </c>
-      <c r="U51" s="7">
+      <c r="V51" s="5">
         <v>70.494</v>
       </c>
-      <c r="V51" s="7">
+      <c r="W51" s="5">
         <v>79.896000000000001</v>
       </c>
-      <c r="W51">
+      <c r="X51" s="5">
         <v>57.654000000000003</v>
       </c>
-      <c r="X51">
+      <c r="Y51" s="5">
         <v>71.406000000000006</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="Z51" s="5">
         <v>83.066000000000003</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="AA51" s="5">
         <v>85.156000000000006</v>
       </c>
-      <c r="AA51">
+      <c r="AB51" s="5">
         <v>87.492000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>92.55</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>94.126000000000005</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>93.68</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>94.135999999999996</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>92.981999999999999</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>94.102000000000004</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>93.144000000000005</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>94.19</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>93.052000000000007</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>94.313999999999993</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="5">
         <v>93.394000000000005</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="5">
         <v>93.766000000000005</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="5">
         <v>93.774000000000001</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="5">
         <v>93.763999999999996</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="5">
         <v>94.052000000000007</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="5">
         <v>94.248000000000005</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="5">
         <v>94.36</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="5">
         <v>94.236000000000004</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="5">
+        <v>94.441999999999993</v>
+      </c>
+      <c r="U52" s="5">
         <v>94.361999999999995</v>
       </c>
-      <c r="U52" s="7">
+      <c r="V52" s="5">
         <v>94.674000000000007</v>
       </c>
-      <c r="V52" s="7">
+      <c r="W52" s="5">
         <v>94.745999999999995</v>
       </c>
-      <c r="W52">
+      <c r="X52" s="5">
         <v>94.77</v>
       </c>
-      <c r="X52">
+      <c r="Y52" s="5">
         <v>94.903999999999996</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Z52" s="5">
         <v>95.475999999999999</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AA52" s="5">
         <v>95.287999999999997</v>
       </c>
-      <c r="AA52">
+      <c r="AB52" s="5">
         <v>95.444000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>83.76</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>92.938000000000002</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>93.331999999999994</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>92.632000000000005</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>92.981999999999999</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>92.396000000000001</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>93.072000000000003</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>92.611999999999995</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>93.11</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>92.634</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="5">
         <v>93.281999999999996</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="5">
         <v>89.096000000000004</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="5">
         <v>89.331999999999994</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="5">
         <v>90.78</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="5">
         <v>91.796000000000006</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="5">
         <v>92.756</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="5">
         <v>93.378</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="5">
         <v>93.563999999999993</v>
       </c>
-      <c r="T53" s="6">
+      <c r="T53" s="5">
+        <v>93.537999999999997</v>
+      </c>
+      <c r="U53" s="5">
         <v>88.884</v>
       </c>
-      <c r="U53" s="7">
+      <c r="V53" s="5">
         <v>91.662000000000006</v>
       </c>
-      <c r="V53" s="7">
+      <c r="W53" s="5">
         <v>92.513999999999996</v>
       </c>
-      <c r="W53">
+      <c r="X53" s="5">
         <v>89.926000000000002</v>
       </c>
-      <c r="X53">
+      <c r="Y53" s="5">
         <v>91.751999999999995</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="Z53" s="5">
         <v>94.451999999999998</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="AA53" s="5">
         <v>94.626000000000005</v>
       </c>
-      <c r="AA53">
+      <c r="AB53" s="5">
         <v>94.697999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>36.229999999999997</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>59.457999999999998</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>72.195999999999998</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>60.533999999999999</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>82.432000000000002</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>56.094000000000001</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>81.573999999999998</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>54.758000000000003</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <v>82.025999999999996</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>56.94</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="5">
         <v>83.957999999999998</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="5">
         <v>61.25</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="5">
         <v>61.738</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="5">
         <v>72.153999999999996</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="5">
         <v>76.597999999999999</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54" s="5">
         <v>81.418000000000006</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="5">
         <v>80.56</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="5">
         <v>82.703999999999994</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="5">
+        <v>83.872</v>
+      </c>
+      <c r="U54" s="5">
         <v>55.485999999999997</v>
       </c>
-      <c r="U54" s="7">
+      <c r="V54" s="5">
         <v>70.376000000000005</v>
       </c>
-      <c r="V54" s="7">
+      <c r="W54" s="5">
         <v>79.66</v>
       </c>
-      <c r="W54">
+      <c r="X54" s="5">
         <v>57.66</v>
       </c>
-      <c r="X54">
+      <c r="Y54" s="5">
         <v>71.313999999999993</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Z54" s="5">
         <v>83.052000000000007</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="AA54" s="5">
         <v>85.078000000000003</v>
       </c>
-      <c r="AA54">
+      <c r="AB54" s="5">
         <v>87.662000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>77.260000000000005</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>78.69</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>80.048000000000002</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>79.116</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>81.95</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>80.325999999999993</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>82.347999999999999</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>79.103999999999999</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <v>81.701999999999998</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>80.3</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="5">
         <v>82.686000000000007</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="5">
         <v>92.275999999999996</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="5">
         <v>93.495999999999995</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="5">
         <v>92.855999999999995</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55" s="5">
         <v>93.108000000000004</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="Q55" s="5">
         <v>94.177999999999997</v>
       </c>
-      <c r="R55" s="6">
+      <c r="R55" s="5">
         <v>91.867999999999995</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S55" s="5">
         <v>91.504000000000005</v>
       </c>
-      <c r="T55" s="6">
+      <c r="T55" s="5">
+        <v>91.918000000000006</v>
+      </c>
+      <c r="U55" s="5">
         <v>94.424000000000007</v>
       </c>
-      <c r="U55" s="7">
+      <c r="V55" s="5">
         <v>92.775999999999996</v>
       </c>
-      <c r="V55" s="7">
+      <c r="W55" s="5">
         <v>94.158000000000001</v>
       </c>
-      <c r="W55">
+      <c r="X55" s="5">
         <v>94.403999999999996</v>
       </c>
-      <c r="X55">
+      <c r="Y55" s="5">
         <v>94.891999999999996</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="Z55" s="5">
         <v>94.54</v>
       </c>
-      <c r="Z55" s="6">
+      <c r="AA55" s="5">
         <v>94.498000000000005</v>
       </c>
-      <c r="AA55">
+      <c r="AB55" s="5">
         <v>94.475999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>54.11</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>59.045999999999999</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>63.643999999999998</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>59.067999999999998</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>68.646000000000001</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>61.762</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>68.47</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="5">
         <v>59.99</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <v>67.126000000000005</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>61.555999999999997</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="5">
         <v>68.831999999999994</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="5">
         <v>88.116</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="5">
         <v>91.927999999999997</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="5">
         <v>89.908000000000001</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="5">
         <v>90.733999999999995</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="Q56" s="5">
         <v>93.537999999999997</v>
       </c>
-      <c r="R56" s="6">
+      <c r="R56" s="5">
         <v>87.072000000000003</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="5">
         <v>87.46</v>
       </c>
-      <c r="T56" s="6">
+      <c r="T56" s="5">
+        <v>87.85</v>
+      </c>
+      <c r="U56" s="5">
         <v>92.578000000000003</v>
       </c>
-      <c r="U56" s="7">
+      <c r="V56" s="5">
         <v>88.31</v>
       </c>
-      <c r="V56" s="7">
+      <c r="W56" s="5">
         <v>92.32</v>
       </c>
-      <c r="W56">
+      <c r="X56" s="5">
         <v>91.986000000000004</v>
       </c>
-      <c r="X56">
+      <c r="Y56" s="5">
         <v>93.451999999999998</v>
       </c>
-      <c r="Y56" s="6">
+      <c r="Z56" s="5">
         <v>92.861999999999995</v>
       </c>
-      <c r="Z56" s="6">
+      <c r="AA56" s="5">
         <v>93.215999999999994</v>
       </c>
-      <c r="AA56">
+      <c r="AB56" s="5">
         <v>93.111999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>81.66</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>86.024000000000001</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>87.75</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>86.736000000000004</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>90.811999999999998</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>86.825999999999993</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>90.683999999999997</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>86.516000000000005</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>90.68</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>86.817999999999998</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="5">
         <v>90.616</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="5">
         <v>94.614000000000004</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57" s="5">
         <v>94.512</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="5">
         <v>94.587999999999994</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57" s="5">
         <v>94.566000000000003</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="Q57" s="5">
         <v>94.495999999999995</v>
       </c>
-      <c r="R57" s="6">
+      <c r="R57" s="5">
         <v>94.36</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="5">
         <v>94.394000000000005</v>
       </c>
-      <c r="T57" s="6">
+      <c r="T57" s="5">
+        <v>94.385999999999996</v>
+      </c>
+      <c r="U57" s="5">
         <v>94.138000000000005</v>
       </c>
-      <c r="U57" s="7">
+      <c r="V57" s="5">
         <v>92.456000000000003</v>
       </c>
-      <c r="V57" s="7">
+      <c r="W57" s="5">
         <v>95.25</v>
       </c>
-      <c r="W57">
+      <c r="X57" s="5">
         <v>92.96</v>
       </c>
-      <c r="X57">
+      <c r="Y57" s="5">
         <v>95.941999999999993</v>
       </c>
-      <c r="Y57" s="6">
+      <c r="Z57" s="5">
         <v>95.567999999999998</v>
       </c>
-      <c r="Z57" s="6">
+      <c r="AA57" s="5">
         <v>95.432000000000002</v>
       </c>
-      <c r="AA57">
+      <c r="AB57" s="5">
         <v>95.504000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>68.02</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>75.957999999999998</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>79.525999999999996</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>77.492000000000004</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>86.262</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>77.123999999999995</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>85.694000000000003</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <v>76.825999999999993</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>86.15</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>77.081999999999994</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="5">
         <v>86.144000000000005</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="5">
         <v>94.36</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="5">
         <v>94.372</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="5">
         <v>94.385999999999996</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="5">
         <v>94.421999999999997</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="Q58" s="5">
         <v>94.385999999999996</v>
       </c>
-      <c r="R58" s="6">
+      <c r="R58" s="5">
         <v>94.158000000000001</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="5">
         <v>94.147999999999996</v>
       </c>
-      <c r="T58" s="6">
+      <c r="T58" s="5">
+        <v>94.153999999999996</v>
+      </c>
+      <c r="U58" s="5">
         <v>91.811999999999998</v>
       </c>
-      <c r="U58" s="7">
+      <c r="V58" s="5">
         <v>88.853999999999999</v>
       </c>
-      <c r="V58" s="7">
+      <c r="W58" s="5">
         <v>95.134</v>
       </c>
-      <c r="W58">
+      <c r="X58" s="5">
         <v>88.822000000000003</v>
       </c>
-      <c r="X58">
+      <c r="Y58" s="5">
         <v>95.736000000000004</v>
       </c>
-      <c r="Y58" s="6">
+      <c r="Z58" s="5">
         <v>95.408000000000001</v>
       </c>
-      <c r="Z58" s="6">
+      <c r="AA58" s="5">
         <v>95.27</v>
       </c>
-      <c r="AA58">
+      <c r="AB58" s="5">
         <v>95.257999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>46.762</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>55.125999999999998</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>59.304000000000002</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>58.165999999999997</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>72.117999999999995</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>54.097999999999999</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>70.664000000000001</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>54.402000000000001</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <v>71.733999999999995</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>54.036000000000001</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>73.03</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="5">
         <v>93.816000000000003</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="5">
         <v>94.087999999999994</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="5">
         <v>93.846000000000004</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59" s="5">
         <v>93.885999999999996</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="Q59" s="5">
         <v>94.182000000000002</v>
       </c>
-      <c r="R59" s="6">
+      <c r="R59" s="5">
         <v>93.531999999999996</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S59" s="5">
         <v>93.762</v>
       </c>
-      <c r="T59" s="6">
+      <c r="T59" s="5">
+        <v>93.554000000000002</v>
+      </c>
+      <c r="U59" s="5">
         <v>83.41</v>
       </c>
-      <c r="U59" s="7">
+      <c r="V59" s="5">
         <v>78.144000000000005</v>
       </c>
-      <c r="V59" s="7">
+      <c r="W59" s="5">
         <v>94.504000000000005</v>
       </c>
-      <c r="W59">
+      <c r="X59" s="5">
         <v>72.671999999999997</v>
       </c>
-      <c r="X59">
+      <c r="Y59" s="5">
         <v>95.272000000000006</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="Z59" s="5">
         <v>95.085999999999999</v>
       </c>
-      <c r="Z59" s="6">
+      <c r="AA59" s="5">
         <v>95.081999999999994</v>
       </c>
-      <c r="AA59">
+      <c r="AB59" s="5">
         <v>94.853999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>82.626000000000005</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>87.302000000000007</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>89.13</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>88.22</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>91.438000000000002</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>87.944000000000003</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>91.296000000000006</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="5">
         <v>87.593999999999994</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <v>91.415999999999997</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>88.025999999999996</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="5">
         <v>91.436000000000007</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="5">
         <v>94.337999999999994</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="5">
         <v>94.322000000000003</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="5">
         <v>94.46</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="5">
         <v>94.481999999999999</v>
       </c>
-      <c r="Q60" s="6">
+      <c r="Q60" s="5">
         <v>94.504000000000005</v>
       </c>
-      <c r="R60" s="6">
+      <c r="R60" s="5">
         <v>94.33</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="5">
         <v>94.29</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T60" s="5">
+        <v>94.302000000000007</v>
+      </c>
+      <c r="U60" s="5">
         <v>93.462000000000003</v>
       </c>
-      <c r="U60" s="7">
+      <c r="V60" s="5">
         <v>92.394000000000005</v>
       </c>
-      <c r="V60" s="7">
+      <c r="W60" s="5">
         <v>95.048000000000002</v>
       </c>
-      <c r="W60">
+      <c r="X60" s="5">
         <v>92.171999999999997</v>
       </c>
-      <c r="X60">
+      <c r="Y60" s="5">
         <v>95.74</v>
       </c>
-      <c r="Y60" s="6">
+      <c r="Z60" s="5">
         <v>95.536000000000001</v>
       </c>
-      <c r="Z60" s="6">
+      <c r="AA60" s="5">
         <v>95.378</v>
       </c>
-      <c r="AA60">
+      <c r="AB60" s="5">
         <v>95.414000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>75.477999999999994</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>82.701999999999998</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>85.41</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>83.396000000000001</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>89.647999999999996</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>82.855999999999995</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>89.415999999999997</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>82.754000000000005</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <v>89.695999999999998</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>83.201999999999998</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="5">
         <v>89.691999999999993</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="5">
         <v>94.078000000000003</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="5">
         <v>94.132000000000005</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="5">
         <v>94.396000000000001</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="5">
         <v>94.468000000000004</v>
       </c>
-      <c r="Q61" s="6">
+      <c r="Q61" s="5">
         <v>94.433999999999997</v>
       </c>
-      <c r="R61" s="6">
+      <c r="R61" s="5">
         <v>94.096000000000004</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="5">
         <v>94.262</v>
       </c>
-      <c r="T61" s="6">
+      <c r="T61" s="5">
+        <v>94.123999999999995</v>
+      </c>
+      <c r="U61" s="5">
         <v>91.864000000000004</v>
       </c>
-      <c r="U61" s="7">
+      <c r="V61" s="5">
         <v>90.067999999999998</v>
       </c>
-      <c r="V61" s="7">
+      <c r="W61" s="5">
         <v>94.817999999999998</v>
       </c>
-      <c r="W61">
+      <c r="X61" s="5">
         <v>89.168000000000006</v>
       </c>
-      <c r="X61">
+      <c r="Y61" s="5">
         <v>95.462000000000003</v>
       </c>
-      <c r="Y61" s="6">
+      <c r="Z61" s="5">
         <v>95.394000000000005</v>
       </c>
-      <c r="Z61" s="6">
+      <c r="AA61" s="5">
         <v>95.274000000000001</v>
       </c>
-      <c r="AA61">
+      <c r="AB61" s="5">
         <v>95.26</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>53.3</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>64.504000000000005</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>70.322000000000003</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>66.712000000000003</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="5">
         <v>80.864000000000004</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>63.71</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="5">
         <v>79.680000000000007</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="5">
         <v>63.195999999999998</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="5">
         <v>80.278000000000006</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>63.636000000000003</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="5">
         <v>81.641999999999996</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="5">
         <v>92.51</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N62" s="5">
         <v>93.001999999999995</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="5">
         <v>93.834000000000003</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P62" s="5">
         <v>93.918000000000006</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="Q62" s="5">
         <v>94.156000000000006</v>
       </c>
-      <c r="R62" s="6">
+      <c r="R62" s="5">
         <v>93.438000000000002</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S62" s="5">
         <v>93.784000000000006</v>
       </c>
-      <c r="T62" s="6">
+      <c r="T62" s="5">
+        <v>93.43</v>
+      </c>
+      <c r="U62" s="5">
         <v>83.691999999999993</v>
       </c>
-      <c r="U62" s="7">
+      <c r="V62" s="5">
         <v>81.537999999999997</v>
       </c>
-      <c r="V62" s="7">
+      <c r="W62" s="5">
         <v>93.906000000000006</v>
       </c>
-      <c r="W62">
+      <c r="X62" s="5">
         <v>74.024000000000001</v>
       </c>
-      <c r="X62">
+      <c r="Y62" s="5">
         <v>94.56</v>
       </c>
-      <c r="Y62" s="6">
+      <c r="Z62" s="5">
         <v>94.82</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="AA62" s="5">
         <v>94.953999999999994</v>
       </c>
-      <c r="AA62">
+      <c r="AB62" s="5">
         <v>94.745999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>82</v>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="D63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="F63" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="G63" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="H63" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="I63" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="J63" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="K63" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="L63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N63" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K63" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L63" s="10" t="s">
+      <c r="O63" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M63" s="10" t="s">
+      <c r="Q63" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R63" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N63" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P63" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q63" s="10" t="s">
+      <c r="S63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U63" t="s">
+        <v>74</v>
+      </c>
+      <c r="V63" t="s">
+        <v>75</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X63" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z63" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB63" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R63" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="S63" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="T63" t="s">
-        <v>75</v>
-      </c>
-      <c r="U63" t="s">
-        <v>76</v>
-      </c>
-      <c r="V63" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W63" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X63" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y63" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z63" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA63" s="10" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -8129,7 +8367,7 @@
         <v>5.4039999999999964</v>
       </c>
       <c r="R64" s="3">
-        <f t="shared" ref="R64:T64" si="1">100-R2</f>
+        <f t="shared" ref="R64:U64" si="1">100-R2</f>
         <v>5.4279999999999973</v>
       </c>
       <c r="S64" s="3">
@@ -8138,38 +8376,42 @@
       </c>
       <c r="T64" s="3">
         <f t="shared" si="1"/>
+        <v>5.2720000000000056</v>
+      </c>
+      <c r="U64" s="3">
+        <f t="shared" si="1"/>
         <v>4.230000000000004</v>
       </c>
-      <c r="U64" s="3">
-        <f>100-U2</f>
+      <c r="V64" s="3">
+        <f>100-V2</f>
         <v>4.5259999999999962</v>
       </c>
-      <c r="V64" s="3">
-        <f t="shared" ref="V64" si="2">100-V2</f>
+      <c r="W64" s="3">
+        <f t="shared" ref="W64" si="2">100-W2</f>
         <v>4.5360000000000014</v>
       </c>
-      <c r="W64" s="3">
-        <f t="shared" ref="W64:AA64" si="3">100-W2</f>
+      <c r="X64" s="3">
+        <f t="shared" ref="X64:AB64" si="3">100-X2</f>
         <v>4.0139999999999958</v>
       </c>
-      <c r="X64" s="3">
+      <c r="Y64" s="3">
         <f t="shared" si="3"/>
         <v>3.9120000000000061</v>
       </c>
-      <c r="Y64" s="3">
+      <c r="Z64" s="3">
         <f t="shared" si="3"/>
         <v>4.2720000000000056</v>
       </c>
-      <c r="Z64" s="3">
+      <c r="AA64" s="3">
         <f t="shared" si="3"/>
         <v>4.5100000000000051</v>
       </c>
-      <c r="AA64" s="3">
+      <c r="AB64" s="3">
         <f t="shared" si="3"/>
         <v>4.3419999999999987</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -8238,7 +8480,7 @@
         <v>19.899631578947371</v>
       </c>
       <c r="R65" s="3">
-        <f t="shared" ref="R65:T65" si="5">(1900-SUM(R3:R21))/19</f>
+        <f t="shared" ref="R65:U65" si="5">(1900-SUM(R3:R21))/19</f>
         <v>19.348315789473716</v>
       </c>
       <c r="S65" s="3">
@@ -8247,38 +8489,42 @@
       </c>
       <c r="T65" s="3">
         <f t="shared" si="5"/>
+        <v>18.563157894736857</v>
+      </c>
+      <c r="U65" s="3">
+        <f t="shared" si="5"/>
         <v>18.06078947368421</v>
       </c>
-      <c r="U65" s="3">
-        <f t="shared" ref="U65:AA65" si="6">(1900-SUM(U3:U21))/19</f>
+      <c r="V65" s="3">
+        <f t="shared" ref="V65:AB65" si="6">(1900-SUM(V3:V21))/19</f>
         <v>14.389789473684219</v>
       </c>
-      <c r="V65" s="3">
-        <f t="shared" ref="V65" si="7">(1900-SUM(V3:V21))/19</f>
+      <c r="W65" s="3">
+        <f t="shared" ref="W65" si="7">(1900-SUM(W3:W21))/19</f>
         <v>12.643631578947359</v>
       </c>
-      <c r="W65" s="3">
+      <c r="X65" s="3">
         <f t="shared" si="6"/>
         <v>15.298157894736841</v>
       </c>
-      <c r="X65" s="3">
+      <c r="Y65" s="3">
         <f t="shared" si="6"/>
         <v>12.787368421052621</v>
       </c>
-      <c r="Y65" s="3">
+      <c r="Z65" s="3">
         <f t="shared" si="6"/>
         <v>11.229736842105263</v>
       </c>
-      <c r="Z65" s="3">
+      <c r="AA65" s="3">
         <f t="shared" si="6"/>
         <v>11.086157894736839</v>
       </c>
-      <c r="AA65" s="3">
+      <c r="AB65" s="3">
         <f t="shared" si="6"/>
         <v>10.39373684210525</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -8347,7 +8593,7 @@
         <v>1.9615099925979759E-2</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" ref="R66:T66" si="9">((600-SUM(R22:R27))/6-R64)/R64</f>
+        <f t="shared" ref="R66:U66" si="9">((600-SUM(R22:R27))/6-R64)/R64</f>
         <v>6.0795873249809926E-3</v>
       </c>
       <c r="S66" s="2">
@@ -8356,361 +8602,264 @@
       </c>
       <c r="T66" s="2">
         <f t="shared" si="9"/>
+        <v>1.6502276176023033E-2</v>
+      </c>
+      <c r="U66" s="2">
+        <f t="shared" si="9"/>
         <v>8.5815602836878196E-2</v>
       </c>
-      <c r="U66" s="2">
-        <f t="shared" ref="U66:AA66" si="10">((600-SUM(U22:U27))/6-U64)/U64</f>
+      <c r="V66" s="2">
+        <f t="shared" ref="V66:AB66" si="10">((600-SUM(V22:V27))/6-V64)/V64</f>
         <v>4.9049933716308669E-2</v>
       </c>
-      <c r="V66" s="2">
-        <f t="shared" ref="V66" si="11">((600-SUM(V22:V27))/6-V64)/V64</f>
+      <c r="W66" s="2">
+        <f t="shared" ref="W66" si="11">((600-SUM(W22:W27))/6-W64)/W64</f>
         <v>4.137272192827654E-2</v>
       </c>
-      <c r="W66" s="2">
+      <c r="X66" s="2">
         <f t="shared" si="10"/>
         <v>9.0350440126225645E-2</v>
       </c>
-      <c r="X66" s="2">
-        <f>((600-SUM(X22:X27))/6-X64)/X64</f>
+      <c r="Y66" s="2">
+        <f>((600-SUM(Y22:Y27))/6-Y64)/Y64</f>
         <v>9.321745057941562E-2</v>
       </c>
-      <c r="Y66" s="2">
+      <c r="Z66" s="2">
         <f t="shared" si="10"/>
         <v>1.7088014981274102E-2</v>
       </c>
-      <c r="Z66" s="2">
+      <c r="AA66" s="2">
         <f t="shared" si="10"/>
         <v>4.8780487804868681E-3</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AB66" s="2">
         <f t="shared" si="10"/>
         <v>9.3658836173783674E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="3">
-        <f>(3500-SUM(B28:B62))/35</f>
-        <v>29.184342857142852</v>
+        <f>((3300-(SUM(B28:B31)+SUM(B34:B62)))/33)</f>
+        <v>30.580000000000009</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ref="C67:Q67" si="12">(3500-SUM(C28:C62))/35</f>
-        <v>19.887142857142862</v>
+        <f>((3300-(SUM(C28:C31)+SUM(C34:C62)))/33)</f>
+        <v>20.665757575757571</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" si="12"/>
-        <v>16.30565714285714</v>
+        <f t="shared" ref="D67:AB67" si="12">((3300-(SUM(D28:D31)+SUM(D34:D62)))/33)</f>
+        <v>16.814727272727257</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="12"/>
-        <v>19.355657142857126</v>
+        <v>20.107151515151518</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="12"/>
-        <v>12.611485714285715</v>
+        <v>12.848363636363626</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="12"/>
-        <v>20.609200000000005</v>
+        <v>21.440303030303035</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="12"/>
-        <v>12.875257142857143</v>
+        <v>13.149090909090912</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" si="12"/>
-        <v>20.916228571428576</v>
+        <v>21.766727272727262</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" si="12"/>
-        <v>12.760857142857146</v>
+        <v>13.013636363636373</v>
       </c>
       <c r="K67" s="3">
         <f t="shared" si="12"/>
-        <v>20.342685714285693</v>
+        <v>21.169515151515153</v>
       </c>
       <c r="L67" s="3">
         <f t="shared" si="12"/>
-        <v>11.89520000000001</v>
+        <v>12.137030303030301</v>
       </c>
       <c r="M67" s="3">
         <f t="shared" si="12"/>
-        <v>15.965657142857136</v>
+        <v>16.554969696969678</v>
       </c>
       <c r="N67" s="3">
         <f t="shared" si="12"/>
-        <v>15.736285714285701</v>
+        <v>16.297757575757547</v>
       </c>
       <c r="O67" s="3">
         <f t="shared" si="12"/>
-        <v>12.872171428571411</v>
+        <v>13.267636363636374</v>
       </c>
       <c r="P67" s="3">
         <f t="shared" si="12"/>
-        <v>11.363142857142858</v>
+        <v>11.665151515151523</v>
       </c>
       <c r="Q67" s="3">
         <f t="shared" si="12"/>
-        <v>9.761942857142861</v>
+        <v>9.9514545454545491</v>
       </c>
       <c r="R67" s="3">
-        <f t="shared" ref="R67:T67" si="13">(3500-SUM(R28:R62))/35</f>
-        <v>10.021199999999979</v>
+        <f t="shared" si="12"/>
+        <v>10.23054545454546</v>
       </c>
       <c r="S67" s="3">
-        <f t="shared" si="13"/>
-        <v>9.4737714285714247</v>
+        <f t="shared" si="12"/>
+        <v>9.6310909090908954</v>
       </c>
       <c r="T67" s="3">
-        <f t="shared" si="13"/>
-        <v>17.690914285714292</v>
+        <f t="shared" si="12"/>
+        <v>9.1800606060606071</v>
       </c>
       <c r="U67" s="3">
-        <f t="shared" ref="U67:AA67" si="14">(3500-SUM(U28:U62))/35</f>
-        <v>13.844857142857148</v>
+        <f t="shared" si="12"/>
+        <v>18.469575757575747</v>
       </c>
       <c r="V67" s="3">
-        <f t="shared" ref="V67" si="15">(3500-SUM(V28:V62))/35</f>
-        <v>9.9118285714285381</v>
+        <f t="shared" si="12"/>
+        <v>14.35321212121212</v>
       </c>
       <c r="W67" s="3">
-        <f t="shared" si="14"/>
-        <v>17.63051428571428</v>
+        <f t="shared" si="12"/>
+        <v>10.180060606060607</v>
       </c>
       <c r="X67" s="3">
-        <f t="shared" si="14"/>
-        <v>12.059600000000007</v>
+        <f t="shared" si="12"/>
+        <v>18.429575757575741</v>
       </c>
       <c r="Y67" s="3">
-        <f t="shared" si="14"/>
-        <v>8.3597714285714311</v>
+        <f t="shared" si="12"/>
+        <v>12.522000000000018</v>
       </c>
       <c r="Z67" s="3">
-        <f t="shared" si="14"/>
-        <v>7.8360571428571477</v>
+        <f t="shared" si="12"/>
+        <v>8.5773333333333373</v>
       </c>
       <c r="AA67" s="3">
-        <f t="shared" si="14"/>
-        <v>7.0855999999999897</v>
+        <f t="shared" si="12"/>
+        <v>8.0015757575757753</v>
+      </c>
+      <c r="AB67" s="3">
+        <f t="shared" si="12"/>
+        <v>7.2205454545454479</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="3">
-        <f>(2700-SUM(B28:B54))/27</f>
-        <v>28.172888888888902</v>
-      </c>
-      <c r="C68" s="3">
-        <f t="shared" ref="C68:AA68" si="16">(2700-SUM(C28:C54))/27</f>
-        <v>17.977851851851852</v>
-      </c>
-      <c r="D68" s="3">
-        <f t="shared" si="16"/>
-        <v>14.29007407407407</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" si="16"/>
-        <v>17.642740740740734</v>
-      </c>
-      <c r="F68" s="3">
-        <f t="shared" si="16"/>
-        <v>11.227407407407419</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" si="16"/>
-        <v>19.109925925925921</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" si="16"/>
-        <v>11.440222222222221</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="16"/>
-        <v>19.349999999999994</v>
-      </c>
-      <c r="J68" s="3">
-        <f t="shared" si="16"/>
-        <v>11.311555555555548</v>
-      </c>
-      <c r="K68" s="3">
-        <f t="shared" si="16"/>
-        <v>18.764814814814802</v>
-      </c>
-      <c r="L68" s="3">
-        <f t="shared" si="16"/>
-        <v>10.385555555555568</v>
-      </c>
-      <c r="M68" s="3">
-        <f t="shared" si="16"/>
-        <v>18.626148148148147</v>
-      </c>
-      <c r="N68" s="3">
-        <f t="shared" si="16"/>
-        <v>18.541555555555551</v>
-      </c>
-      <c r="O68" s="3">
-        <f t="shared" si="16"/>
-        <v>14.77037037037036</v>
-      </c>
-      <c r="P68" s="3">
-        <f t="shared" si="16"/>
-        <v>12.862740740740735</v>
-      </c>
-      <c r="Q68" s="3">
-        <f t="shared" si="16"/>
-        <v>10.945999999999996</v>
-      </c>
-      <c r="R68" s="3">
-        <f t="shared" si="16"/>
-        <v>10.87392592592591</v>
-      </c>
-      <c r="S68" s="3">
-        <f t="shared" si="16"/>
-        <v>10.19207407407408</v>
-      </c>
-      <c r="T68" s="3">
-        <f t="shared" si="16"/>
-        <v>20.168962962962958</v>
-      </c>
-      <c r="U68" s="3">
-        <f t="shared" si="16"/>
-        <v>14.411481481481486</v>
-      </c>
-      <c r="V68" s="3">
-        <f t="shared" ref="V68" si="17">(2700-SUM(V28:V54))/27</f>
-        <v>11.187111111111083</v>
-      </c>
-      <c r="W68" s="3">
-        <f t="shared" si="16"/>
-        <v>19.010222222222215</v>
-      </c>
-      <c r="X68" s="3">
-        <f t="shared" si="16"/>
-        <v>14.190444444444438</v>
-      </c>
-      <c r="Y68" s="3">
-        <f t="shared" si="16"/>
-        <v>9.3261481481481496</v>
-      </c>
-      <c r="Z68" s="3">
-        <f t="shared" si="16"/>
-        <v>8.6431851851851853</v>
-      </c>
-      <c r="AA68" s="3">
-        <f t="shared" si="16"/>
-        <v>7.6525925925925886</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69">
+        <v>82</v>
+      </c>
+      <c r="B68">
         <f>B2/100</f>
         <v>0.94733999999999996</v>
       </c>
-      <c r="C69">
-        <f t="shared" ref="C69:AA69" si="18">C2/100</f>
+      <c r="C68">
+        <f t="shared" ref="C68:AB68" si="13">C2/100</f>
         <v>0.94169999999999998</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="18"/>
+      <c r="D68">
+        <f t="shared" si="13"/>
         <v>0.93572</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="18"/>
+      <c r="E68">
+        <f t="shared" si="13"/>
         <v>0.94177999999999995</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="18"/>
+      <c r="F68">
+        <f t="shared" si="13"/>
         <v>0.92846000000000006</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="18"/>
+      <c r="G68">
+        <f t="shared" si="13"/>
         <v>0.94224000000000008</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="18"/>
+      <c r="H68">
+        <f t="shared" si="13"/>
         <v>0.93087999999999993</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="18"/>
+      <c r="I68">
+        <f t="shared" si="13"/>
         <v>0.94319999999999993</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="18"/>
+      <c r="J68">
+        <f t="shared" si="13"/>
         <v>0.92949999999999999</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="18"/>
+      <c r="K68">
+        <f t="shared" si="13"/>
         <v>0.94530000000000003</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="18"/>
+      <c r="L68">
+        <f t="shared" si="13"/>
         <v>0.93457999999999997</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="18"/>
+      <c r="M68">
+        <f t="shared" si="13"/>
         <v>0.94808000000000003</v>
       </c>
-      <c r="N69">
-        <f t="shared" si="18"/>
+      <c r="N68">
+        <f t="shared" si="13"/>
         <v>0.94672000000000001</v>
       </c>
-      <c r="O69">
-        <f t="shared" si="18"/>
+      <c r="O68">
+        <f t="shared" si="13"/>
         <v>0.94774000000000003</v>
       </c>
-      <c r="P69">
-        <f t="shared" si="18"/>
+      <c r="P68">
+        <f t="shared" si="13"/>
         <v>0.9472799999999999</v>
       </c>
-      <c r="Q69">
-        <f t="shared" si="18"/>
+      <c r="Q68">
+        <f t="shared" si="13"/>
         <v>0.94596000000000002</v>
       </c>
-      <c r="R69">
-        <f t="shared" si="18"/>
+      <c r="R68">
+        <f t="shared" si="13"/>
         <v>0.94572000000000001</v>
       </c>
-      <c r="S69">
-        <f t="shared" si="18"/>
+      <c r="S68">
+        <f t="shared" si="13"/>
         <v>0.94412000000000007</v>
       </c>
-      <c r="T69">
-        <f t="shared" si="18"/>
+      <c r="T68">
+        <f t="shared" si="13"/>
+        <v>0.9472799999999999</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="13"/>
         <v>0.9577</v>
       </c>
-      <c r="U69">
-        <f t="shared" si="18"/>
+      <c r="V68">
+        <f t="shared" si="13"/>
         <v>0.95474000000000003</v>
       </c>
-      <c r="V69">
-        <f t="shared" si="18"/>
+      <c r="W68">
+        <f t="shared" si="13"/>
         <v>0.95463999999999993</v>
       </c>
-      <c r="W69">
-        <f t="shared" si="18"/>
+      <c r="X68">
+        <f t="shared" si="13"/>
         <v>0.95986000000000005</v>
       </c>
-      <c r="X69">
-        <f t="shared" si="18"/>
+      <c r="Y68">
+        <f t="shared" si="13"/>
         <v>0.96087999999999996</v>
       </c>
-      <c r="Y69">
-        <f t="shared" si="18"/>
+      <c r="Z68">
+        <f t="shared" si="13"/>
         <v>0.95727999999999991</v>
       </c>
-      <c r="Z69">
-        <f t="shared" si="18"/>
+      <c r="AA68">
+        <f t="shared" si="13"/>
         <v>0.95489999999999997</v>
       </c>
-      <c r="AA69">
-        <f t="shared" si="18"/>
+      <c r="AB68">
+        <f t="shared" si="13"/>
         <v>0.95657999999999999</v>
       </c>
     </row>
